--- a/spfc/spu17.xlsx
+++ b/spfc/spu17.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\hmantovani\spfc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.mantovani\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F48D3C9-F846-4F82-8418-5D9C39944BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459351D-76DB-4A2C-A938-8970D3C4D357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87FC580F-1D21-4718-ABDB-4D4DB1AE9047}"/>
+    <workbookView xWindow="4455" yWindow="0" windowWidth="24345" windowHeight="15600" activeTab="1" xr2:uid="{87FC580F-1D21-4718-ABDB-4D4DB1AE9047}"/>
   </bookViews>
   <sheets>
     <sheet name="Jogos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="227">
   <si>
     <t>D</t>
   </si>
@@ -706,9 +706,6 @@
     <t>40+1</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>TEC</t>
   </si>
   <si>
@@ -722,6 +719,9 @@
   </si>
   <si>
     <t>90+1</t>
+  </si>
+  <si>
+    <t>CV</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -805,9 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1127,7 +1124,7 @@
   <dimension ref="A1:N235"/>
   <sheetViews>
     <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235"/>
+      <selection activeCell="A208" sqref="A208:XFD208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9483,11 +9480,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDD27F8-27F3-4C5C-885E-01AE277212F8}">
-  <dimension ref="A1:M865"/>
+  <dimension ref="A1:N865"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I313" sqref="I313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9496,10 +9493,10 @@
     <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="13" width="9.140625" style="1"/>
+    <col min="5" max="14" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>148</v>
       </c>
@@ -9522,25 +9519,28 @@
         <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>188</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>188</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>188</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -9649,11 +9649,11 @@
       <c r="F8" s="1">
         <v>41</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -9666,11 +9666,11 @@
       <c r="D9" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>188</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -9703,11 +9703,11 @@
       <c r="F11" s="1">
         <v>61</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>188</v>
       </c>
@@ -9723,11 +9723,11 @@
       <c r="F12" s="1">
         <v>41</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>188</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>188</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>188</v>
       </c>
@@ -9856,11 +9856,11 @@
       <c r="G20" s="1">
         <v>63</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -9876,11 +9876,11 @@
       <c r="E21" s="1">
         <v>61</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>188</v>
       </c>
@@ -9888,34 +9888,34 @@
         <v>195</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>187</v>
       </c>
       <c r="B23" s="1">
         <v>196</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>187</v>
       </c>
       <c r="B24" s="1">
         <v>196</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" t="s">
@@ -9928,42 +9928,42 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>187</v>
       </c>
       <c r="B25" s="1">
         <v>196</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>187</v>
       </c>
       <c r="B26" s="1">
         <v>196</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>187</v>
       </c>
       <c r="B27" s="1">
         <v>196</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="1">
         <v>6</v>
       </c>
       <c r="D27" t="s">
@@ -9973,28 +9973,28 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>187</v>
       </c>
       <c r="B28" s="1">
         <v>196</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="1">
         <v>5</v>
       </c>
       <c r="D28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>187</v>
       </c>
       <c r="B29" s="1">
         <v>196</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="1">
         <v>7</v>
       </c>
       <c r="D29" t="s">
@@ -10004,14 +10004,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>187</v>
       </c>
       <c r="B30" s="1">
         <v>196</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="1">
         <v>8</v>
       </c>
       <c r="D30" t="s">
@@ -10021,14 +10021,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>187</v>
       </c>
       <c r="B31" s="1">
         <v>196</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="1">
         <v>10</v>
       </c>
       <c r="D31" t="s">
@@ -10037,18 +10037,18 @@
       <c r="F31" s="1">
         <v>77</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>187</v>
       </c>
       <c r="B32" s="1">
         <v>196</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="1">
         <v>9</v>
       </c>
       <c r="D32" t="s">
@@ -10057,10 +10057,10 @@
       <c r="F32" s="1">
         <v>77</v>
       </c>
-      <c r="H32" s="1">
-        <v>4</v>
-      </c>
       <c r="I32" s="1">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1">
         <v>17</v>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       <c r="B33" s="1">
         <v>196</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="1">
         <v>11</v>
       </c>
       <c r="D33" t="s">
@@ -10088,7 +10088,7 @@
       <c r="B34" s="1">
         <v>196</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="1">
         <v>12</v>
       </c>
       <c r="D34" t="s">
@@ -10102,7 +10102,7 @@
       <c r="B35" s="1">
         <v>196</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="1">
         <v>14</v>
       </c>
       <c r="D35" t="s">
@@ -10112,7 +10112,7 @@
         <v>55</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -10122,7 +10122,7 @@
       <c r="B36" s="1">
         <v>196</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="1">
         <v>13</v>
       </c>
       <c r="D36" t="s">
@@ -10136,7 +10136,7 @@
       <c r="B37" s="1">
         <v>196</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="1">
         <v>15</v>
       </c>
       <c r="D37" t="s">
@@ -10153,7 +10153,7 @@
       <c r="B38" s="1">
         <v>196</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="1">
         <v>16</v>
       </c>
       <c r="D38" t="s">
@@ -10170,7 +10170,7 @@
       <c r="B39" s="1">
         <v>196</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="1">
         <v>20</v>
       </c>
       <c r="D39" t="s">
@@ -10187,7 +10187,7 @@
       <c r="B40" s="1">
         <v>196</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="1">
         <v>17</v>
       </c>
       <c r="D40" t="s">
@@ -10204,7 +10204,7 @@
       <c r="B41" s="1">
         <v>196</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="1">
         <v>18</v>
       </c>
       <c r="D41" t="s">
@@ -10221,7 +10221,7 @@
       <c r="B42" s="1">
         <v>196</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="1">
         <v>19</v>
       </c>
       <c r="D42" t="s">
@@ -10239,7 +10239,7 @@
         <v>196</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" t="s">
         <v>208</v>
@@ -10321,7 +10321,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>186</v>
       </c>
@@ -10334,11 +10334,11 @@
       <c r="D49" t="s">
         <v>128</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>186</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>186</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>186</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -10405,14 +10405,14 @@
       <c r="F53" s="1">
         <v>69</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>20</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>186</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>186</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>186</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>186</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>186</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>186</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>186</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>186</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -10570,34 +10570,34 @@
         <v>197</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D63" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>185</v>
       </c>
       <c r="B64" s="1">
         <v>198</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="1">
         <v>1</v>
       </c>
       <c r="D64" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>185</v>
       </c>
       <c r="B65" s="1">
         <v>198</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="1">
         <v>2</v>
       </c>
       <c r="D65" t="s">
@@ -10606,32 +10606,32 @@
       <c r="F65" s="1">
         <v>67</v>
       </c>
-      <c r="H65" s="1">
+      <c r="I65" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>185</v>
       </c>
       <c r="B66" s="1">
         <v>198</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="1">
         <v>3</v>
       </c>
       <c r="D66" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>185</v>
       </c>
       <c r="B67" s="1">
         <v>198</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="1">
         <v>4</v>
       </c>
       <c r="D67" t="s">
@@ -10641,28 +10641,28 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>185</v>
       </c>
       <c r="B68" s="1">
         <v>198</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="1">
         <v>6</v>
       </c>
       <c r="D68" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>185</v>
       </c>
       <c r="B69" s="1">
         <v>198</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="1">
         <v>5</v>
       </c>
       <c r="D69" t="s">
@@ -10672,31 +10672,31 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>185</v>
       </c>
       <c r="B70" s="1">
         <v>198</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="1">
         <v>7</v>
       </c>
       <c r="D70" t="s">
         <v>132</v>
       </c>
-      <c r="H70" s="1">
+      <c r="I70" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>185</v>
       </c>
       <c r="B71" s="1">
         <v>198</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="1">
         <v>8</v>
       </c>
       <c r="D71" t="s">
@@ -10706,14 +10706,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>185</v>
       </c>
       <c r="B72" s="1">
         <v>198</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="1">
         <v>10</v>
       </c>
       <c r="D72" t="s">
@@ -10722,18 +10722,18 @@
       <c r="F72" s="1">
         <v>76</v>
       </c>
-      <c r="H72" s="1">
+      <c r="I72" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>185</v>
       </c>
       <c r="B73" s="1">
         <v>198</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="1">
         <v>9</v>
       </c>
       <c r="D73" t="s">
@@ -10742,18 +10742,18 @@
       <c r="F73" s="1">
         <v>76</v>
       </c>
-      <c r="H73" s="1">
+      <c r="I73" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>185</v>
       </c>
       <c r="B74" s="1">
         <v>198</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="1">
         <v>11</v>
       </c>
       <c r="D74" t="s">
@@ -10763,28 +10763,28 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>185</v>
       </c>
       <c r="B75" s="1">
         <v>198</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="1">
         <v>12</v>
       </c>
       <c r="D75" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>185</v>
       </c>
       <c r="B76" s="1">
         <v>198</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="1">
         <v>14</v>
       </c>
       <c r="D76" t="s">
@@ -10794,14 +10794,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>185</v>
       </c>
       <c r="B77" s="1">
         <v>198</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="1">
         <v>13</v>
       </c>
       <c r="D77" t="s">
@@ -10811,14 +10811,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>185</v>
       </c>
       <c r="B78" s="1">
         <v>198</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="1">
         <v>15</v>
       </c>
       <c r="D78" t="s">
@@ -10828,28 +10828,28 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>185</v>
       </c>
       <c r="B79" s="1">
         <v>198</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="1">
         <v>16</v>
       </c>
       <c r="D79" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>185</v>
       </c>
       <c r="B80" s="1">
         <v>198</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="1">
         <v>20</v>
       </c>
       <c r="D80" t="s">
@@ -10858,18 +10858,18 @@
       <c r="E80" s="1">
         <v>41</v>
       </c>
-      <c r="H80" s="1">
+      <c r="I80" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>185</v>
       </c>
       <c r="B81" s="1">
         <v>198</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="1">
         <v>17</v>
       </c>
       <c r="D81" t="s">
@@ -10879,14 +10879,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>185</v>
       </c>
       <c r="B82" s="1">
         <v>198</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="1">
         <v>18</v>
       </c>
       <c r="D82" t="s">
@@ -10899,14 +10899,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>185</v>
       </c>
       <c r="B83" s="1">
         <v>198</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="1">
         <v>19</v>
       </c>
       <c r="D83" t="s">
@@ -10916,7 +10916,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>185</v>
       </c>
@@ -10924,118 +10924,118 @@
         <v>198</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D84" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>184</v>
       </c>
       <c r="B85" s="1">
         <v>199</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="1">
         <v>1</v>
       </c>
       <c r="D85" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>184</v>
       </c>
       <c r="B86" s="1">
         <v>199</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="1">
         <v>2</v>
       </c>
       <c r="D86" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>184</v>
       </c>
       <c r="B87" s="1">
         <v>199</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="1">
         <v>3</v>
       </c>
       <c r="D87" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>184</v>
       </c>
       <c r="B88" s="1">
         <v>199</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="1">
         <v>4</v>
       </c>
       <c r="D88" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>184</v>
       </c>
       <c r="B89" s="1">
         <v>199</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="1">
         <v>6</v>
       </c>
       <c r="D89" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>184</v>
       </c>
       <c r="B90" s="1">
         <v>199</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="1">
         <v>5</v>
       </c>
       <c r="D90" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>184</v>
       </c>
       <c r="B91" s="1">
         <v>199</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="1">
         <v>7</v>
       </c>
       <c r="D91" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>184</v>
       </c>
       <c r="B92" s="1">
         <v>199</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="1">
         <v>8</v>
       </c>
       <c r="D92" t="s">
@@ -11045,158 +11045,158 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>184</v>
       </c>
       <c r="B93" s="1">
         <v>199</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="1">
         <v>10</v>
       </c>
       <c r="D93" t="s">
         <v>131</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H93" s="1">
+        <v>223</v>
+      </c>
+      <c r="I93" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>184</v>
       </c>
       <c r="B94" s="1">
         <v>199</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="1">
         <v>11</v>
       </c>
       <c r="D94" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>184</v>
       </c>
       <c r="B95" s="1">
         <v>199</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="1">
         <v>9</v>
       </c>
       <c r="D95" t="s">
         <v>142</v>
       </c>
-      <c r="H95" s="1">
+      <c r="I95" s="1">
         <v>26</v>
       </c>
-      <c r="I95" s="1">
+      <c r="J95" s="1">
         <v>66</v>
       </c>
-      <c r="J95" s="1">
+      <c r="K95" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>184</v>
       </c>
       <c r="B96" s="1">
         <v>199</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="1">
         <v>12</v>
       </c>
       <c r="D96" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>184</v>
       </c>
       <c r="B97" s="1">
         <v>199</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="1">
         <v>14</v>
       </c>
       <c r="D97" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>184</v>
       </c>
       <c r="B98" s="1">
         <v>199</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98" s="1">
         <v>13</v>
       </c>
       <c r="D98" t="s">
         <v>138</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>184</v>
       </c>
       <c r="B99" s="1">
         <v>199</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="1">
         <v>15</v>
       </c>
       <c r="D99" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>184</v>
       </c>
       <c r="B100" s="1">
         <v>199</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="1">
         <v>16</v>
       </c>
       <c r="D100" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>184</v>
       </c>
       <c r="B101" s="1">
         <v>199</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="1">
         <v>17</v>
       </c>
       <c r="D101" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>184</v>
       </c>
       <c r="B102" s="1">
         <v>199</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="1">
         <v>18</v>
       </c>
       <c r="D102" t="s">
@@ -11206,35 +11206,35 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>184</v>
       </c>
       <c r="B103" s="1">
         <v>199</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C103" s="1">
         <v>19</v>
       </c>
       <c r="D103" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>184</v>
       </c>
       <c r="B104" s="1">
         <v>199</v>
       </c>
-      <c r="C104" s="10">
+      <c r="C104" s="1">
         <v>20</v>
       </c>
       <c r="D104" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>184</v>
       </c>
@@ -11242,13 +11242,13 @@
         <v>199</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D105" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>183</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>183</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>183</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>183</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>183</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>183</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>183</v>
       </c>
@@ -11363,11 +11363,11 @@
       <c r="D112" t="s">
         <v>132</v>
       </c>
-      <c r="H112" s="1">
+      <c r="I112" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>183</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>183</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>183</v>
       </c>
@@ -11417,11 +11417,11 @@
       <c r="D115" t="s">
         <v>140</v>
       </c>
-      <c r="H115" s="1">
+      <c r="I115" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>183</v>
       </c>
@@ -11437,23 +11437,23 @@
       <c r="F116" s="1">
         <v>52</v>
       </c>
-      <c r="H116" s="1">
+      <c r="I116" s="1">
         <v>22</v>
       </c>
-      <c r="I116" s="1">
+      <c r="J116" s="1">
         <v>23</v>
       </c>
-      <c r="J116" s="1">
+      <c r="K116" s="1">
         <v>25</v>
       </c>
-      <c r="K116" s="1">
+      <c r="L116" s="1">
         <v>35</v>
       </c>
-      <c r="L116" s="1">
+      <c r="M116" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>183</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>183</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>183</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>183</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>183</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>183</v>
       </c>
@@ -11551,11 +11551,11 @@
       <c r="E122" s="1">
         <v>52</v>
       </c>
-      <c r="H122" s="1">
+      <c r="I122" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>183</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>183</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>183</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>183</v>
       </c>
@@ -11614,20 +11614,20 @@
         <v>200</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D126" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>182</v>
       </c>
       <c r="B127" s="1">
         <v>201</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C127" s="1">
         <v>1</v>
       </c>
       <c r="D127" t="s">
@@ -11637,28 +11637,28 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>182</v>
       </c>
       <c r="B128" s="1">
         <v>201</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C128" s="1">
         <v>2</v>
       </c>
       <c r="D128" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>182</v>
       </c>
       <c r="B129" s="1">
         <v>201</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="1">
         <v>3</v>
       </c>
       <c r="D129" t="s">
@@ -11668,31 +11668,31 @@
         <v>62</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>182</v>
       </c>
       <c r="B130" s="1">
         <v>201</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="1">
         <v>4</v>
       </c>
       <c r="D130" t="s">
         <v>127</v>
       </c>
-      <c r="H130" s="1">
+      <c r="I130" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>182</v>
       </c>
       <c r="B131" s="1">
         <v>201</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C131" s="1">
         <v>6</v>
       </c>
       <c r="D131" t="s">
@@ -11702,31 +11702,31 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>182</v>
       </c>
       <c r="B132" s="1">
         <v>201</v>
       </c>
-      <c r="C132" s="10">
+      <c r="C132" s="1">
         <v>5</v>
       </c>
       <c r="D132" t="s">
         <v>128</v>
       </c>
-      <c r="H132" s="1">
+      <c r="I132" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>182</v>
       </c>
       <c r="B133" s="1">
         <v>201</v>
       </c>
-      <c r="C133" s="10">
+      <c r="C133" s="1">
         <v>7</v>
       </c>
       <c r="D133" t="s">
@@ -11735,18 +11735,18 @@
       <c r="F133" s="1">
         <v>72</v>
       </c>
-      <c r="H133" s="1">
+      <c r="I133" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>182</v>
       </c>
       <c r="B134" s="1">
         <v>201</v>
       </c>
-      <c r="C134" s="10">
+      <c r="C134" s="1">
         <v>8</v>
       </c>
       <c r="D134" t="s">
@@ -11756,28 +11756,28 @@
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>182</v>
       </c>
       <c r="B135" s="1">
         <v>201</v>
       </c>
-      <c r="C135" s="10">
+      <c r="C135" s="1">
         <v>10</v>
       </c>
       <c r="D135" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>182</v>
       </c>
       <c r="B136" s="1">
         <v>201</v>
       </c>
-      <c r="C136" s="10">
+      <c r="C136" s="1">
         <v>9</v>
       </c>
       <c r="D136" t="s">
@@ -11786,18 +11786,18 @@
       <c r="F136" s="1">
         <v>72</v>
       </c>
-      <c r="H136" s="1">
+      <c r="I136" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>182</v>
       </c>
       <c r="B137" s="1">
         <v>201</v>
       </c>
-      <c r="C137" s="10">
+      <c r="C137" s="1">
         <v>11</v>
       </c>
       <c r="D137" t="s">
@@ -11806,18 +11806,18 @@
       <c r="F137" s="1">
         <v>62</v>
       </c>
-      <c r="H137" s="1">
+      <c r="I137" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>182</v>
       </c>
       <c r="B138" s="1">
         <v>201</v>
       </c>
-      <c r="C138" s="10">
+      <c r="C138" s="1">
         <v>12</v>
       </c>
       <c r="D138" t="s">
@@ -11827,14 +11827,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>182</v>
       </c>
       <c r="B139" s="1">
         <v>201</v>
       </c>
-      <c r="C139" s="10">
+      <c r="C139" s="1">
         <v>14</v>
       </c>
       <c r="D139" t="s">
@@ -11844,42 +11844,42 @@
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>182</v>
       </c>
       <c r="B140" s="1">
         <v>201</v>
       </c>
-      <c r="C140" s="10">
+      <c r="C140" s="1">
         <v>13</v>
       </c>
       <c r="D140" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>182</v>
       </c>
       <c r="B141" s="1">
         <v>201</v>
       </c>
-      <c r="C141" s="10">
+      <c r="C141" s="1">
         <v>15</v>
       </c>
       <c r="D141" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>182</v>
       </c>
       <c r="B142" s="1">
         <v>201</v>
       </c>
-      <c r="C142" s="10">
+      <c r="C142" s="1">
         <v>16</v>
       </c>
       <c r="D142" t="s">
@@ -11889,14 +11889,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>182</v>
       </c>
       <c r="B143" s="1">
         <v>201</v>
       </c>
-      <c r="C143" s="10">
+      <c r="C143" s="1">
         <v>20</v>
       </c>
       <c r="D143" t="s">
@@ -11906,14 +11906,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>182</v>
       </c>
       <c r="B144" s="1">
         <v>201</v>
       </c>
-      <c r="C144" s="10">
+      <c r="C144" s="1">
         <v>19</v>
       </c>
       <c r="D144" t="s">
@@ -11923,14 +11923,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>182</v>
       </c>
       <c r="B145" s="1">
         <v>201</v>
       </c>
-      <c r="C145" s="10">
+      <c r="C145" s="1">
         <v>17</v>
       </c>
       <c r="D145" t="s">
@@ -11940,14 +11940,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>182</v>
       </c>
       <c r="B146" s="1">
         <v>201</v>
       </c>
-      <c r="C146" s="10">
+      <c r="C146" s="1">
         <v>18</v>
       </c>
       <c r="D146" t="s">
@@ -11957,7 +11957,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>182</v>
       </c>
@@ -11965,13 +11965,13 @@
         <v>201</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D147" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>181</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>181</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>181</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>181</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>181</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>181</v>
       </c>
@@ -12063,11 +12063,11 @@
       <c r="D153" t="s">
         <v>129</v>
       </c>
-      <c r="H153" s="1">
+      <c r="I153" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>181</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>181</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>181</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>181</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>181</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>181</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>181</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>181</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>181</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>181</v>
       </c>
@@ -12250,11 +12250,11 @@
       <c r="E164" s="1">
         <v>41</v>
       </c>
-      <c r="H164" s="1">
+      <c r="I164" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -12270,11 +12270,11 @@
       <c r="E165" s="1">
         <v>70</v>
       </c>
-      <c r="H165" s="1">
+      <c r="I165" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>181</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -12307,17 +12307,17 @@
       <c r="E167" s="1">
         <v>41</v>
       </c>
-      <c r="H167" s="1">
+      <c r="I167" s="1">
         <v>54</v>
       </c>
-      <c r="I167" s="1">
+      <c r="J167" s="1">
         <v>56</v>
       </c>
-      <c r="J167" s="1">
+      <c r="K167" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>181</v>
       </c>
@@ -12325,76 +12325,76 @@
         <v>202</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D168" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>180</v>
       </c>
       <c r="B169" s="1">
         <v>203</v>
       </c>
-      <c r="C169" s="10">
+      <c r="C169" s="1">
         <v>1</v>
       </c>
       <c r="D169" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>180</v>
       </c>
       <c r="B170" s="1">
         <v>203</v>
       </c>
-      <c r="C170" s="10">
+      <c r="C170" s="1">
         <v>2</v>
       </c>
       <c r="D170" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>180</v>
       </c>
       <c r="B171" s="1">
         <v>203</v>
       </c>
-      <c r="C171" s="10">
+      <c r="C171" s="1">
         <v>3</v>
       </c>
       <c r="D171" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>180</v>
       </c>
       <c r="B172" s="1">
         <v>203</v>
       </c>
-      <c r="C172" s="10">
+      <c r="C172" s="1">
         <v>4</v>
       </c>
       <c r="D172" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>180</v>
       </c>
       <c r="B173" s="1">
         <v>203</v>
       </c>
-      <c r="C173" s="10">
+      <c r="C173" s="1">
         <v>6</v>
       </c>
       <c r="D173" t="s">
@@ -12404,28 +12404,28 @@
         <v>57</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>180</v>
       </c>
       <c r="B174" s="1">
         <v>203</v>
       </c>
-      <c r="C174" s="10">
+      <c r="C174" s="1">
         <v>5</v>
       </c>
       <c r="D174" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>180</v>
       </c>
       <c r="B175" s="1">
         <v>203</v>
       </c>
-      <c r="C175" s="10">
+      <c r="C175" s="1">
         <v>7</v>
       </c>
       <c r="D175" t="s">
@@ -12438,14 +12438,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>180</v>
       </c>
       <c r="B176" s="1">
         <v>203</v>
       </c>
-      <c r="C176" s="10">
+      <c r="C176" s="1">
         <v>8</v>
       </c>
       <c r="D176" t="s">
@@ -12454,7 +12454,7 @@
       <c r="F176" s="1">
         <v>57</v>
       </c>
-      <c r="H176" s="1">
+      <c r="I176" s="1">
         <v>38</v>
       </c>
     </row>
@@ -12465,14 +12465,14 @@
       <c r="B177" s="1">
         <v>203</v>
       </c>
-      <c r="C177" s="10">
+      <c r="C177" s="1">
         <v>10</v>
       </c>
       <c r="D177" t="s">
         <v>140</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -12482,7 +12482,7 @@
       <c r="B178" s="1">
         <v>203</v>
       </c>
-      <c r="C178" s="10">
+      <c r="C178" s="1">
         <v>9</v>
       </c>
       <c r="D178" t="s">
@@ -12496,7 +12496,7 @@
       <c r="B179" s="1">
         <v>203</v>
       </c>
-      <c r="C179" s="10">
+      <c r="C179" s="1">
         <v>11</v>
       </c>
       <c r="D179" t="s">
@@ -12513,7 +12513,7 @@
       <c r="B180" s="1">
         <v>203</v>
       </c>
-      <c r="C180" s="10">
+      <c r="C180" s="1">
         <v>12</v>
       </c>
       <c r="D180" t="s">
@@ -12527,7 +12527,7 @@
       <c r="B181" s="1">
         <v>203</v>
       </c>
-      <c r="C181" s="10">
+      <c r="C181" s="1">
         <v>13</v>
       </c>
       <c r="D181" t="s">
@@ -12541,7 +12541,7 @@
       <c r="B182" s="1">
         <v>203</v>
       </c>
-      <c r="C182" s="10">
+      <c r="C182" s="1">
         <v>14</v>
       </c>
       <c r="D182" t="s">
@@ -12558,7 +12558,7 @@
       <c r="B183" s="1">
         <v>203</v>
       </c>
-      <c r="C183" s="10">
+      <c r="C183" s="1">
         <v>15</v>
       </c>
       <c r="D183" t="s">
@@ -12572,7 +12572,7 @@
       <c r="B184" s="1">
         <v>203</v>
       </c>
-      <c r="C184" s="10">
+      <c r="C184" s="1">
         <v>16</v>
       </c>
       <c r="D184" t="s">
@@ -12589,7 +12589,7 @@
       <c r="B185" s="1">
         <v>203</v>
       </c>
-      <c r="C185" s="10">
+      <c r="C185" s="1">
         <v>17</v>
       </c>
       <c r="D185" t="s">
@@ -12606,14 +12606,14 @@
       <c r="B186" s="1">
         <v>203</v>
       </c>
-      <c r="C186" s="10">
+      <c r="C186" s="1">
         <v>19</v>
       </c>
       <c r="D186" t="s">
         <v>134</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -12623,7 +12623,7 @@
       <c r="B187" s="1">
         <v>203</v>
       </c>
-      <c r="C187" s="10">
+      <c r="C187" s="1">
         <v>18</v>
       </c>
       <c r="D187" t="s">
@@ -12641,7 +12641,7 @@
         <v>203</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D188" t="s">
         <v>190</v>
@@ -12706,7 +12706,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>179</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>179</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>179</v>
       </c>
@@ -12756,11 +12756,11 @@
       <c r="F195" s="1">
         <v>54</v>
       </c>
-      <c r="H195" s="1">
+      <c r="I195" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>179</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>179</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>179</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>179</v>
       </c>
@@ -12824,11 +12824,11 @@
       <c r="F199" s="1">
         <v>73</v>
       </c>
-      <c r="H199" s="1">
+      <c r="I199" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>179</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>179</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>179</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>179</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>179</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>179</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>179</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>179</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>179</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>179</v>
       </c>
@@ -12980,13 +12980,13 @@
         <v>204</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D209" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>178</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>178</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>178</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>178</v>
       </c>
@@ -13051,10 +13051,10 @@
         <v>127</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>178</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>178</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>178</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>178</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>178</v>
       </c>
@@ -13129,11 +13129,11 @@
       <c r="D218" t="s">
         <v>131</v>
       </c>
-      <c r="H218" s="1">
+      <c r="I218" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>178</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>178</v>
       </c>
@@ -13169,17 +13169,17 @@
       <c r="G220" s="1">
         <v>15</v>
       </c>
-      <c r="H220" s="1">
+      <c r="I220" s="1">
         <v>12</v>
       </c>
-      <c r="I220" s="1">
+      <c r="J220" s="1">
         <v>31</v>
       </c>
-      <c r="J220" s="1">
+      <c r="K220" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>178</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>178</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>178</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>178</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>178</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>178</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>178</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>178</v>
       </c>
@@ -13302,11 +13302,11 @@
       <c r="E228" s="1">
         <v>67</v>
       </c>
-      <c r="H228" s="1">
+      <c r="I228" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>178</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>178</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>178</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>178</v>
       </c>
@@ -13362,293 +13362,344 @@
         <v>205</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D232" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>177</v>
       </c>
       <c r="B233" s="1">
         <v>206</v>
       </c>
-      <c r="C233" s="10">
+      <c r="C233" s="1">
         <v>1</v>
       </c>
       <c r="D233" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G233" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>177</v>
       </c>
       <c r="B234" s="1">
         <v>206</v>
       </c>
-      <c r="C234" s="10">
+      <c r="C234" s="1">
         <v>2</v>
       </c>
       <c r="D234" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>177</v>
       </c>
       <c r="B235" s="1">
         <v>206</v>
       </c>
-      <c r="C235" s="10">
+      <c r="C235" s="1">
         <v>3</v>
       </c>
       <c r="D235" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>177</v>
       </c>
       <c r="B236" s="1">
         <v>206</v>
       </c>
-      <c r="C236" s="10">
+      <c r="C236" s="1">
         <v>4</v>
       </c>
       <c r="D236" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G236" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>177</v>
       </c>
       <c r="B237" s="1">
         <v>206</v>
       </c>
-      <c r="C237" s="10">
+      <c r="C237" s="1">
         <v>5</v>
       </c>
       <c r="D237" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F237" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>177</v>
       </c>
       <c r="B238" s="1">
         <v>206</v>
       </c>
-      <c r="C238" s="10">
+      <c r="C238" s="1">
         <v>6</v>
       </c>
       <c r="D238" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G238" s="1">
+        <v>61</v>
+      </c>
+      <c r="H238" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>177</v>
       </c>
       <c r="B239" s="1">
         <v>206</v>
       </c>
-      <c r="C239" s="10">
+      <c r="C239" s="1">
         <v>8</v>
       </c>
       <c r="D239" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F239" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>177</v>
       </c>
       <c r="B240" s="1">
         <v>206</v>
       </c>
-      <c r="C240" s="10">
+      <c r="C240" s="1">
         <v>10</v>
       </c>
       <c r="D240" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F240" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>177</v>
       </c>
       <c r="B241" s="1">
         <v>206</v>
       </c>
-      <c r="C241" s="10">
+      <c r="C241" s="1">
         <v>9</v>
       </c>
       <c r="D241" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F241" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>177</v>
       </c>
       <c r="B242" s="1">
         <v>206</v>
       </c>
-      <c r="C242" s="10">
+      <c r="C242" s="1">
         <v>7</v>
       </c>
       <c r="D242" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F242" s="1">
+        <v>41</v>
+      </c>
+      <c r="I242" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>177</v>
       </c>
       <c r="B243" s="1">
         <v>206</v>
       </c>
-      <c r="C243" s="10">
+      <c r="C243" s="1">
         <v>11</v>
       </c>
       <c r="D243" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F243" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>177</v>
       </c>
       <c r="B244" s="1">
         <v>206</v>
       </c>
-      <c r="C244" s="10">
+      <c r="C244" s="1">
         <v>12</v>
       </c>
       <c r="D244" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>177</v>
       </c>
       <c r="B245" s="1">
         <v>206</v>
       </c>
-      <c r="C245" s="10">
+      <c r="C245" s="1">
         <v>14</v>
       </c>
       <c r="D245" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>177</v>
       </c>
       <c r="B246" s="1">
         <v>206</v>
       </c>
-      <c r="C246" s="10">
+      <c r="C246" s="1">
         <v>13</v>
       </c>
       <c r="D246" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>177</v>
       </c>
       <c r="B247" s="1">
         <v>206</v>
       </c>
-      <c r="C247" s="10">
+      <c r="C247" s="1">
         <v>16</v>
       </c>
       <c r="D247" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>177</v>
       </c>
       <c r="B248" s="1">
         <v>206</v>
       </c>
-      <c r="C248" s="10">
+      <c r="C248" s="1">
         <v>17</v>
       </c>
       <c r="D248" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>177</v>
       </c>
       <c r="B249" s="1">
         <v>206</v>
       </c>
-      <c r="C249" s="10">
+      <c r="C249" s="1">
         <v>20</v>
       </c>
       <c r="D249" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>177</v>
       </c>
       <c r="B250" s="1">
         <v>206</v>
       </c>
-      <c r="C250" s="10">
+      <c r="C250" s="1">
         <v>15</v>
       </c>
       <c r="D250" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>177</v>
       </c>
       <c r="B251" s="1">
         <v>206</v>
       </c>
-      <c r="C251" s="10">
+      <c r="C251" s="1">
         <v>18</v>
       </c>
       <c r="D251" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>177</v>
       </c>
       <c r="B252" s="1">
         <v>206</v>
       </c>
-      <c r="C252" s="10">
+      <c r="C252" s="1">
         <v>19</v>
       </c>
       <c r="D252" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>177</v>
       </c>
@@ -13656,293 +13707,338 @@
         <v>206</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D253" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>176</v>
       </c>
       <c r="B254" s="1">
         <v>207</v>
       </c>
-      <c r="C254" s="10">
+      <c r="C254" s="1">
         <v>1</v>
       </c>
       <c r="D254" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>176</v>
       </c>
       <c r="B255" s="1">
         <v>207</v>
       </c>
-      <c r="C255" s="10">
+      <c r="C255" s="1">
         <v>2</v>
       </c>
       <c r="D255" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F255" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>176</v>
       </c>
       <c r="B256" s="1">
         <v>207</v>
       </c>
-      <c r="C256" s="10">
+      <c r="C256" s="1">
         <v>3</v>
       </c>
       <c r="D256" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>176</v>
       </c>
       <c r="B257" s="1">
         <v>207</v>
       </c>
-      <c r="C257" s="10">
+      <c r="C257" s="1">
         <v>4</v>
       </c>
       <c r="D257" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>176</v>
       </c>
       <c r="B258" s="1">
         <v>207</v>
       </c>
-      <c r="C258" s="10">
+      <c r="C258" s="1">
         <v>6</v>
       </c>
       <c r="D258" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>176</v>
       </c>
       <c r="B259" s="1">
         <v>207</v>
       </c>
-      <c r="C259" s="10">
+      <c r="C259" s="1">
         <v>5</v>
       </c>
       <c r="D259" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F259" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>176</v>
       </c>
       <c r="B260" s="1">
         <v>207</v>
       </c>
-      <c r="C260" s="10">
+      <c r="C260" s="1">
         <v>7</v>
       </c>
       <c r="D260" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>176</v>
       </c>
       <c r="B261" s="1">
         <v>207</v>
       </c>
-      <c r="C261" s="10">
+      <c r="C261" s="1">
         <v>8</v>
       </c>
       <c r="D261" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F261" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>176</v>
       </c>
       <c r="B262" s="1">
         <v>207</v>
       </c>
-      <c r="C262" s="10">
+      <c r="C262" s="1">
         <v>10</v>
       </c>
       <c r="D262" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F262" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>176</v>
       </c>
       <c r="B263" s="1">
         <v>207</v>
       </c>
-      <c r="C263" s="10">
+      <c r="C263" s="1">
         <v>11</v>
       </c>
       <c r="D263" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F263" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>176</v>
       </c>
       <c r="B264" s="1">
         <v>207</v>
       </c>
-      <c r="C264" s="10">
+      <c r="C264" s="1">
         <v>9</v>
       </c>
       <c r="D264" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F264" s="1">
+        <v>79</v>
+      </c>
+      <c r="I264" s="1">
+        <v>31</v>
+      </c>
+      <c r="J264" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>176</v>
       </c>
       <c r="B265" s="1">
         <v>207</v>
       </c>
-      <c r="C265" s="10">
+      <c r="C265" s="1">
         <v>12</v>
       </c>
       <c r="D265" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>176</v>
       </c>
       <c r="B266" s="1">
         <v>207</v>
       </c>
-      <c r="C266" s="10">
+      <c r="C266" s="1">
         <v>13</v>
       </c>
       <c r="D266" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>176</v>
       </c>
       <c r="B267" s="1">
         <v>207</v>
       </c>
-      <c r="C267" s="10">
+      <c r="C267" s="1">
         <v>14</v>
       </c>
       <c r="D267" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>176</v>
       </c>
       <c r="B268" s="1">
         <v>207</v>
       </c>
-      <c r="C268" s="10">
+      <c r="C268" s="1">
         <v>15</v>
       </c>
       <c r="D268" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>176</v>
       </c>
       <c r="B269" s="1">
         <v>207</v>
       </c>
-      <c r="C269" s="10">
+      <c r="C269" s="1">
         <v>16</v>
       </c>
       <c r="D269" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>176</v>
       </c>
       <c r="B270" s="1">
         <v>207</v>
       </c>
-      <c r="C270" s="10">
+      <c r="C270" s="1">
         <v>17</v>
       </c>
       <c r="D270" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>176</v>
       </c>
       <c r="B271" s="1">
         <v>207</v>
       </c>
-      <c r="C271" s="10">
+      <c r="C271" s="1">
         <v>19</v>
       </c>
       <c r="D271" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>176</v>
       </c>
       <c r="B272" s="1">
         <v>207</v>
       </c>
-      <c r="C272" s="10">
+      <c r="C272" s="1">
         <v>20</v>
       </c>
       <c r="D272" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>176</v>
       </c>
       <c r="B273" s="1">
         <v>207</v>
       </c>
-      <c r="C273" s="10">
+      <c r="C273" s="1">
         <v>18</v>
       </c>
       <c r="D273" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" s="1">
+        <v>68</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>176</v>
       </c>
@@ -13950,13 +14046,13 @@
         <v>207</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D274" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>175</v>
       </c>
@@ -13970,7 +14066,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>175</v>
       </c>
@@ -13983,8 +14079,11 @@
       <c r="D276" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G276" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>175</v>
       </c>
@@ -13998,7 +14097,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>175</v>
       </c>
@@ -14012,7 +14111,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>175</v>
       </c>
@@ -14025,8 +14124,14 @@
       <c r="D279" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F279" s="1">
+        <v>54</v>
+      </c>
+      <c r="I279" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>175</v>
       </c>
@@ -14039,8 +14144,11 @@
       <c r="D280" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F280" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>175</v>
       </c>
@@ -14053,8 +14161,11 @@
       <c r="D281" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F281" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>175</v>
       </c>
@@ -14067,8 +14178,14 @@
       <c r="D282" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F282" s="1">
+        <v>62</v>
+      </c>
+      <c r="I282" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>175</v>
       </c>
@@ -14081,8 +14198,11 @@
       <c r="D283" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F283" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>175</v>
       </c>
@@ -14095,8 +14215,11 @@
       <c r="D284" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F284" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>175</v>
       </c>
@@ -14109,8 +14232,11 @@
       <c r="D285" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F285" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>175</v>
       </c>
@@ -14124,7 +14250,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>175</v>
       </c>
@@ -14137,8 +14263,11 @@
       <c r="D287" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>175</v>
       </c>
@@ -14151,8 +14280,11 @@
       <c r="D288" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>175</v>
       </c>
@@ -14165,8 +14297,11 @@
       <c r="D289" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>175</v>
       </c>
@@ -14180,7 +14315,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>175</v>
       </c>
@@ -14193,8 +14328,14 @@
       <c r="D291" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" s="1">
+        <v>54</v>
+      </c>
+      <c r="G291" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>175</v>
       </c>
@@ -14207,8 +14348,11 @@
       <c r="D292" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>175</v>
       </c>
@@ -14221,8 +14365,11 @@
       <c r="D293" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>175</v>
       </c>
@@ -14235,8 +14382,11 @@
       <c r="D294" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>175</v>
       </c>
@@ -14244,13 +14394,13 @@
         <v>208</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D295" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>174</v>
       </c>
@@ -14264,7 +14414,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>174</v>
       </c>
@@ -14277,8 +14427,14 @@
       <c r="D297" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F297" s="1">
+        <v>71</v>
+      </c>
+      <c r="G297" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>174</v>
       </c>
@@ -14292,7 +14448,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>174</v>
       </c>
@@ -14306,7 +14462,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>174</v>
       </c>
@@ -14320,7 +14476,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>174</v>
       </c>
@@ -14333,8 +14489,11 @@
       <c r="D301" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F301" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>174</v>
       </c>
@@ -14347,8 +14506,14 @@
       <c r="D302" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F302" s="1">
+        <v>71</v>
+      </c>
+      <c r="G302" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>174</v>
       </c>
@@ -14361,8 +14526,11 @@
       <c r="D303" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F303" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>174</v>
       </c>
@@ -14375,8 +14543,11 @@
       <c r="D304" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I304" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>174</v>
       </c>
@@ -14389,8 +14560,14 @@
       <c r="D305" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F305" s="1">
+        <v>79</v>
+      </c>
+      <c r="I305" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>174</v>
       </c>
@@ -14403,8 +14580,17 @@
       <c r="D306" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F306" s="1">
+        <v>79</v>
+      </c>
+      <c r="I306" s="1">
+        <v>5</v>
+      </c>
+      <c r="J306" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>174</v>
       </c>
@@ -14418,7 +14604,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>174</v>
       </c>
@@ -14432,7 +14618,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>174</v>
       </c>
@@ -14446,7 +14632,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>174</v>
       </c>
@@ -14459,8 +14645,11 @@
       <c r="D310" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>174</v>
       </c>
@@ -14474,7 +14663,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>174</v>
       </c>
@@ -14487,8 +14676,14 @@
       <c r="D312" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" s="1">
+        <v>65</v>
+      </c>
+      <c r="G312" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>174</v>
       </c>
@@ -14501,8 +14696,11 @@
       <c r="D313" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>174</v>
       </c>
@@ -14516,7 +14714,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>174</v>
       </c>
@@ -14529,8 +14727,11 @@
       <c r="D315" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>174</v>
       </c>
@@ -14544,7 +14745,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>174</v>
       </c>
@@ -14557,8 +14758,11 @@
       <c r="D317" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>174</v>
       </c>
@@ -14571,8 +14775,11 @@
       <c r="D318" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>174</v>
       </c>
@@ -14580,13 +14787,13 @@
         <v>209</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D319" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>173</v>
       </c>
@@ -14916,7 +15123,7 @@
         <v>210</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D343" t="s">
         <v>190</v>
@@ -14929,7 +15136,7 @@
       <c r="B344" s="1">
         <v>211</v>
       </c>
-      <c r="C344" s="10">
+      <c r="C344" s="1">
         <v>1</v>
       </c>
       <c r="D344" t="s">
@@ -14943,7 +15150,7 @@
       <c r="B345" s="1">
         <v>211</v>
       </c>
-      <c r="C345" s="10">
+      <c r="C345" s="1">
         <v>2</v>
       </c>
       <c r="D345" t="s">
@@ -14957,7 +15164,7 @@
       <c r="B346" s="1">
         <v>211</v>
       </c>
-      <c r="C346" s="10">
+      <c r="C346" s="1">
         <v>3</v>
       </c>
       <c r="D346" t="s">
@@ -14971,7 +15178,7 @@
       <c r="B347" s="1">
         <v>211</v>
       </c>
-      <c r="C347" s="10">
+      <c r="C347" s="1">
         <v>4</v>
       </c>
       <c r="D347" t="s">
@@ -14985,7 +15192,7 @@
       <c r="B348" s="1">
         <v>211</v>
       </c>
-      <c r="C348" s="10">
+      <c r="C348" s="1">
         <v>6</v>
       </c>
       <c r="D348" t="s">
@@ -14999,7 +15206,7 @@
       <c r="B349" s="1">
         <v>211</v>
       </c>
-      <c r="C349" s="10">
+      <c r="C349" s="1">
         <v>5</v>
       </c>
       <c r="D349" t="s">
@@ -15013,7 +15220,7 @@
       <c r="B350" s="1">
         <v>211</v>
       </c>
-      <c r="C350" s="10">
+      <c r="C350" s="1">
         <v>7</v>
       </c>
       <c r="D350" t="s">
@@ -15027,7 +15234,7 @@
       <c r="B351" s="1">
         <v>211</v>
       </c>
-      <c r="C351" s="10">
+      <c r="C351" s="1">
         <v>8</v>
       </c>
       <c r="D351" t="s">
@@ -15041,7 +15248,7 @@
       <c r="B352" s="1">
         <v>211</v>
       </c>
-      <c r="C352" s="10">
+      <c r="C352" s="1">
         <v>10</v>
       </c>
       <c r="D352" t="s">
@@ -15055,7 +15262,7 @@
       <c r="B353" s="1">
         <v>211</v>
       </c>
-      <c r="C353" s="10">
+      <c r="C353" s="1">
         <v>11</v>
       </c>
       <c r="D353" t="s">
@@ -15069,7 +15276,7 @@
       <c r="B354" s="1">
         <v>211</v>
       </c>
-      <c r="C354" s="10">
+      <c r="C354" s="1">
         <v>9</v>
       </c>
       <c r="D354" t="s">
@@ -15083,7 +15290,7 @@
       <c r="B355" s="1">
         <v>211</v>
       </c>
-      <c r="C355" s="10">
+      <c r="C355" s="1">
         <v>12</v>
       </c>
       <c r="D355" t="s">
@@ -15097,7 +15304,7 @@
       <c r="B356" s="1">
         <v>211</v>
       </c>
-      <c r="C356" s="10">
+      <c r="C356" s="1">
         <v>14</v>
       </c>
       <c r="D356" t="s">
@@ -15111,7 +15318,7 @@
       <c r="B357" s="1">
         <v>211</v>
       </c>
-      <c r="C357" s="10">
+      <c r="C357" s="1">
         <v>13</v>
       </c>
       <c r="D357" t="s">
@@ -15125,7 +15332,7 @@
       <c r="B358" s="1">
         <v>211</v>
       </c>
-      <c r="C358" s="10">
+      <c r="C358" s="1">
         <v>15</v>
       </c>
       <c r="D358" t="s">
@@ -15139,7 +15346,7 @@
       <c r="B359" s="1">
         <v>211</v>
       </c>
-      <c r="C359" s="10">
+      <c r="C359" s="1">
         <v>16</v>
       </c>
       <c r="D359" t="s">
@@ -15153,7 +15360,7 @@
       <c r="B360" s="1">
         <v>211</v>
       </c>
-      <c r="C360" s="10">
+      <c r="C360" s="1">
         <v>17</v>
       </c>
       <c r="D360" t="s">
@@ -15167,7 +15374,7 @@
       <c r="B361" s="1">
         <v>211</v>
       </c>
-      <c r="C361" s="10">
+      <c r="C361" s="1">
         <v>20</v>
       </c>
       <c r="D361" t="s">
@@ -15181,7 +15388,7 @@
       <c r="B362" s="1">
         <v>211</v>
       </c>
-      <c r="C362" s="10">
+      <c r="C362" s="1">
         <v>19</v>
       </c>
       <c r="D362" t="s">
@@ -15195,7 +15402,7 @@
       <c r="B363" s="1">
         <v>211</v>
       </c>
-      <c r="C363" s="10">
+      <c r="C363" s="1">
         <v>18</v>
       </c>
       <c r="D363" t="s">
@@ -15210,7 +15417,7 @@
         <v>211</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D364" t="s">
         <v>190</v>
@@ -15223,7 +15430,7 @@
       <c r="B365" s="1">
         <v>212</v>
       </c>
-      <c r="C365" s="10">
+      <c r="C365" s="1">
         <v>1</v>
       </c>
       <c r="D365" t="s">
@@ -15237,7 +15444,7 @@
       <c r="B366" s="1">
         <v>212</v>
       </c>
-      <c r="C366" s="10">
+      <c r="C366" s="1">
         <v>2</v>
       </c>
       <c r="D366" t="s">
@@ -15251,7 +15458,7 @@
       <c r="B367" s="1">
         <v>212</v>
       </c>
-      <c r="C367" s="10">
+      <c r="C367" s="1">
         <v>3</v>
       </c>
       <c r="D367" t="s">
@@ -15265,7 +15472,7 @@
       <c r="B368" s="1">
         <v>212</v>
       </c>
-      <c r="C368" s="10">
+      <c r="C368" s="1">
         <v>4</v>
       </c>
       <c r="D368" t="s">
@@ -15279,7 +15486,7 @@
       <c r="B369" s="1">
         <v>212</v>
       </c>
-      <c r="C369" s="10">
+      <c r="C369" s="1">
         <v>5</v>
       </c>
       <c r="D369" t="s">
@@ -15293,7 +15500,7 @@
       <c r="B370" s="1">
         <v>212</v>
       </c>
-      <c r="C370" s="10">
+      <c r="C370" s="1">
         <v>6</v>
       </c>
       <c r="D370" t="s">
@@ -15307,7 +15514,7 @@
       <c r="B371" s="1">
         <v>212</v>
       </c>
-      <c r="C371" s="10">
+      <c r="C371" s="1">
         <v>8</v>
       </c>
       <c r="D371" t="s">
@@ -15321,7 +15528,7 @@
       <c r="B372" s="1">
         <v>212</v>
       </c>
-      <c r="C372" s="10">
+      <c r="C372" s="1">
         <v>10</v>
       </c>
       <c r="D372" t="s">
@@ -15335,7 +15542,7 @@
       <c r="B373" s="1">
         <v>212</v>
       </c>
-      <c r="C373" s="10">
+      <c r="C373" s="1">
         <v>9</v>
       </c>
       <c r="D373" t="s">
@@ -15349,7 +15556,7 @@
       <c r="B374" s="1">
         <v>212</v>
       </c>
-      <c r="C374" s="10">
+      <c r="C374" s="1">
         <v>7</v>
       </c>
       <c r="D374" t="s">
@@ -15363,7 +15570,7 @@
       <c r="B375" s="1">
         <v>212</v>
       </c>
-      <c r="C375" s="10">
+      <c r="C375" s="1">
         <v>11</v>
       </c>
       <c r="D375" t="s">
@@ -15377,7 +15584,7 @@
       <c r="B376" s="1">
         <v>212</v>
       </c>
-      <c r="C376" s="10">
+      <c r="C376" s="1">
         <v>12</v>
       </c>
       <c r="D376" t="s">
@@ -15391,7 +15598,7 @@
       <c r="B377" s="1">
         <v>212</v>
       </c>
-      <c r="C377" s="10">
+      <c r="C377" s="1">
         <v>14</v>
       </c>
       <c r="D377" t="s">
@@ -15405,7 +15612,7 @@
       <c r="B378" s="1">
         <v>212</v>
       </c>
-      <c r="C378" s="10">
+      <c r="C378" s="1">
         <v>13</v>
       </c>
       <c r="D378" t="s">
@@ -15419,7 +15626,7 @@
       <c r="B379" s="1">
         <v>212</v>
       </c>
-      <c r="C379" s="10">
+      <c r="C379" s="1">
         <v>15</v>
       </c>
       <c r="D379" t="s">
@@ -15433,7 +15640,7 @@
       <c r="B380" s="1">
         <v>212</v>
       </c>
-      <c r="C380" s="10">
+      <c r="C380" s="1">
         <v>16</v>
       </c>
       <c r="D380" t="s">
@@ -15447,7 +15654,7 @@
       <c r="B381" s="1">
         <v>212</v>
       </c>
-      <c r="C381" s="10">
+      <c r="C381" s="1">
         <v>17</v>
       </c>
       <c r="D381" t="s">
@@ -15461,7 +15668,7 @@
       <c r="B382" s="1">
         <v>212</v>
       </c>
-      <c r="C382" s="10">
+      <c r="C382" s="1">
         <v>18</v>
       </c>
       <c r="D382" t="s">
@@ -15475,7 +15682,7 @@
       <c r="B383" s="1">
         <v>212</v>
       </c>
-      <c r="C383" s="10">
+      <c r="C383" s="1">
         <v>19</v>
       </c>
       <c r="D383" t="s">
@@ -15489,7 +15696,7 @@
       <c r="B384" s="1">
         <v>212</v>
       </c>
-      <c r="C384" s="10">
+      <c r="C384" s="1">
         <v>20</v>
       </c>
       <c r="D384" t="s">
@@ -15504,7 +15711,7 @@
         <v>212</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D385" t="s">
         <v>190</v>
@@ -15840,7 +16047,7 @@
         <v>213</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D409" t="s">
         <v>190</v>
@@ -16134,7 +16341,7 @@
         <v>214</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D430" t="s">
         <v>190</v>
@@ -16147,7 +16354,7 @@
       <c r="B431" s="1">
         <v>215</v>
       </c>
-      <c r="C431" s="10">
+      <c r="C431" s="1">
         <v>1</v>
       </c>
       <c r="D431" t="s">
@@ -16161,7 +16368,7 @@
       <c r="B432" s="1">
         <v>215</v>
       </c>
-      <c r="C432" s="10">
+      <c r="C432" s="1">
         <v>2</v>
       </c>
       <c r="D432" t="s">
@@ -16175,7 +16382,7 @@
       <c r="B433" s="1">
         <v>215</v>
       </c>
-      <c r="C433" s="10">
+      <c r="C433" s="1">
         <v>3</v>
       </c>
       <c r="D433" t="s">
@@ -16189,7 +16396,7 @@
       <c r="B434" s="1">
         <v>215</v>
       </c>
-      <c r="C434" s="10">
+      <c r="C434" s="1">
         <v>4</v>
       </c>
       <c r="D434" t="s">
@@ -16203,7 +16410,7 @@
       <c r="B435" s="1">
         <v>215</v>
       </c>
-      <c r="C435" s="10">
+      <c r="C435" s="1">
         <v>6</v>
       </c>
       <c r="D435" t="s">
@@ -16217,7 +16424,7 @@
       <c r="B436" s="1">
         <v>215</v>
       </c>
-      <c r="C436" s="10">
+      <c r="C436" s="1">
         <v>5</v>
       </c>
       <c r="D436" t="s">
@@ -16231,7 +16438,7 @@
       <c r="B437" s="1">
         <v>215</v>
       </c>
-      <c r="C437" s="10">
+      <c r="C437" s="1">
         <v>7</v>
       </c>
       <c r="D437" t="s">
@@ -16245,7 +16452,7 @@
       <c r="B438" s="1">
         <v>215</v>
       </c>
-      <c r="C438" s="10">
+      <c r="C438" s="1">
         <v>8</v>
       </c>
       <c r="D438" t="s">
@@ -16259,7 +16466,7 @@
       <c r="B439" s="1">
         <v>215</v>
       </c>
-      <c r="C439" s="10">
+      <c r="C439" s="1">
         <v>10</v>
       </c>
       <c r="D439" t="s">
@@ -16273,7 +16480,7 @@
       <c r="B440" s="1">
         <v>215</v>
       </c>
-      <c r="C440" s="10">
+      <c r="C440" s="1">
         <v>11</v>
       </c>
       <c r="D440" t="s">
@@ -16287,7 +16494,7 @@
       <c r="B441" s="1">
         <v>215</v>
       </c>
-      <c r="C441" s="10">
+      <c r="C441" s="1">
         <v>9</v>
       </c>
       <c r="D441" t="s">
@@ -16301,7 +16508,7 @@
       <c r="B442" s="1">
         <v>215</v>
       </c>
-      <c r="C442" s="10">
+      <c r="C442" s="1">
         <v>12</v>
       </c>
       <c r="D442" t="s">
@@ -16315,7 +16522,7 @@
       <c r="B443" s="1">
         <v>215</v>
       </c>
-      <c r="C443" s="10">
+      <c r="C443" s="1">
         <v>14</v>
       </c>
       <c r="D443" t="s">
@@ -16329,7 +16536,7 @@
       <c r="B444" s="1">
         <v>215</v>
       </c>
-      <c r="C444" s="10">
+      <c r="C444" s="1">
         <v>13</v>
       </c>
       <c r="D444" t="s">
@@ -16343,7 +16550,7 @@
       <c r="B445" s="1">
         <v>215</v>
       </c>
-      <c r="C445" s="10">
+      <c r="C445" s="1">
         <v>15</v>
       </c>
       <c r="D445" t="s">
@@ -16357,7 +16564,7 @@
       <c r="B446" s="1">
         <v>215</v>
       </c>
-      <c r="C446" s="10">
+      <c r="C446" s="1">
         <v>16</v>
       </c>
       <c r="D446" t="s">
@@ -16371,7 +16578,7 @@
       <c r="B447" s="1">
         <v>215</v>
       </c>
-      <c r="C447" s="10">
+      <c r="C447" s="1">
         <v>17</v>
       </c>
       <c r="D447" t="s">
@@ -16385,7 +16592,7 @@
       <c r="B448" s="1">
         <v>215</v>
       </c>
-      <c r="C448" s="10">
+      <c r="C448" s="1">
         <v>18</v>
       </c>
       <c r="D448" t="s">
@@ -16399,7 +16606,7 @@
       <c r="B449" s="1">
         <v>215</v>
       </c>
-      <c r="C449" s="10">
+      <c r="C449" s="1">
         <v>19</v>
       </c>
       <c r="D449" t="s">
@@ -16413,7 +16620,7 @@
       <c r="B450" s="1">
         <v>215</v>
       </c>
-      <c r="C450" s="10">
+      <c r="C450" s="1">
         <v>20</v>
       </c>
       <c r="D450" t="s">
@@ -16428,7 +16635,7 @@
         <v>215</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D451" t="s">
         <v>190</v>
@@ -16441,7 +16648,7 @@
       <c r="B452" s="1">
         <v>216</v>
       </c>
-      <c r="C452" s="10">
+      <c r="C452" s="1">
         <v>1</v>
       </c>
       <c r="D452" t="s">
@@ -16455,7 +16662,7 @@
       <c r="B453" s="1">
         <v>216</v>
       </c>
-      <c r="C453" s="10">
+      <c r="C453" s="1">
         <v>2</v>
       </c>
       <c r="D453" t="s">
@@ -16469,7 +16676,7 @@
       <c r="B454" s="1">
         <v>216</v>
       </c>
-      <c r="C454" s="10">
+      <c r="C454" s="1">
         <v>3</v>
       </c>
       <c r="D454" t="s">
@@ -16483,7 +16690,7 @@
       <c r="B455" s="1">
         <v>216</v>
       </c>
-      <c r="C455" s="10">
+      <c r="C455" s="1">
         <v>4</v>
       </c>
       <c r="D455" t="s">
@@ -16497,7 +16704,7 @@
       <c r="B456" s="1">
         <v>216</v>
       </c>
-      <c r="C456" s="10">
+      <c r="C456" s="1">
         <v>5</v>
       </c>
       <c r="D456" t="s">
@@ -16511,7 +16718,7 @@
       <c r="B457" s="1">
         <v>216</v>
       </c>
-      <c r="C457" s="10">
+      <c r="C457" s="1">
         <v>6</v>
       </c>
       <c r="D457" t="s">
@@ -16525,7 +16732,7 @@
       <c r="B458" s="1">
         <v>216</v>
       </c>
-      <c r="C458" s="10">
+      <c r="C458" s="1">
         <v>8</v>
       </c>
       <c r="D458" t="s">
@@ -16539,7 +16746,7 @@
       <c r="B459" s="1">
         <v>216</v>
       </c>
-      <c r="C459" s="10">
+      <c r="C459" s="1">
         <v>10</v>
       </c>
       <c r="D459" t="s">
@@ -16553,7 +16760,7 @@
       <c r="B460" s="1">
         <v>216</v>
       </c>
-      <c r="C460" s="10">
+      <c r="C460" s="1">
         <v>9</v>
       </c>
       <c r="D460" t="s">
@@ -16567,7 +16774,7 @@
       <c r="B461" s="1">
         <v>216</v>
       </c>
-      <c r="C461" s="10">
+      <c r="C461" s="1">
         <v>7</v>
       </c>
       <c r="D461" t="s">
@@ -16581,7 +16788,7 @@
       <c r="B462" s="1">
         <v>216</v>
       </c>
-      <c r="C462" s="10">
+      <c r="C462" s="1">
         <v>11</v>
       </c>
       <c r="D462" t="s">
@@ -16595,7 +16802,7 @@
       <c r="B463" s="1">
         <v>216</v>
       </c>
-      <c r="C463" s="10">
+      <c r="C463" s="1">
         <v>12</v>
       </c>
       <c r="D463" t="s">
@@ -16609,7 +16816,7 @@
       <c r="B464" s="1">
         <v>216</v>
       </c>
-      <c r="C464" s="10">
+      <c r="C464" s="1">
         <v>13</v>
       </c>
       <c r="D464" t="s">
@@ -16623,7 +16830,7 @@
       <c r="B465" s="1">
         <v>216</v>
       </c>
-      <c r="C465" s="10">
+      <c r="C465" s="1">
         <v>14</v>
       </c>
       <c r="D465" t="s">
@@ -16637,7 +16844,7 @@
       <c r="B466" s="1">
         <v>216</v>
       </c>
-      <c r="C466" s="10">
+      <c r="C466" s="1">
         <v>15</v>
       </c>
       <c r="D466" t="s">
@@ -16651,7 +16858,7 @@
       <c r="B467" s="1">
         <v>216</v>
       </c>
-      <c r="C467" s="10">
+      <c r="C467" s="1">
         <v>16</v>
       </c>
       <c r="D467" t="s">
@@ -16665,7 +16872,7 @@
       <c r="B468" s="1">
         <v>216</v>
       </c>
-      <c r="C468" s="10">
+      <c r="C468" s="1">
         <v>17</v>
       </c>
       <c r="D468" t="s">
@@ -16679,7 +16886,7 @@
       <c r="B469" s="1">
         <v>216</v>
       </c>
-      <c r="C469" s="10">
+      <c r="C469" s="1">
         <v>18</v>
       </c>
       <c r="D469" t="s">
@@ -16693,7 +16900,7 @@
       <c r="B470" s="1">
         <v>216</v>
       </c>
-      <c r="C470" s="10">
+      <c r="C470" s="1">
         <v>19</v>
       </c>
       <c r="D470" t="s">
@@ -16707,7 +16914,7 @@
       <c r="B471" s="1">
         <v>216</v>
       </c>
-      <c r="C471" s="10">
+      <c r="C471" s="1">
         <v>20</v>
       </c>
       <c r="D471" t="s">
@@ -16722,7 +16929,7 @@
         <v>216</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D472" t="s">
         <v>190</v>
@@ -17016,7 +17223,7 @@
         <v>217</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D493" t="s">
         <v>190</v>
@@ -17029,7 +17236,7 @@
       <c r="B494" s="1">
         <v>218</v>
       </c>
-      <c r="C494" s="10">
+      <c r="C494" s="1">
         <v>1</v>
       </c>
       <c r="D494" t="s">
@@ -17043,7 +17250,7 @@
       <c r="B495" s="1">
         <v>218</v>
       </c>
-      <c r="C495" s="10">
+      <c r="C495" s="1">
         <v>2</v>
       </c>
       <c r="D495" t="s">
@@ -17057,7 +17264,7 @@
       <c r="B496" s="1">
         <v>218</v>
       </c>
-      <c r="C496" s="10">
+      <c r="C496" s="1">
         <v>3</v>
       </c>
       <c r="D496" t="s">
@@ -17071,7 +17278,7 @@
       <c r="B497" s="1">
         <v>218</v>
       </c>
-      <c r="C497" s="10">
+      <c r="C497" s="1">
         <v>4</v>
       </c>
       <c r="D497" t="s">
@@ -17085,7 +17292,7 @@
       <c r="B498" s="1">
         <v>218</v>
       </c>
-      <c r="C498" s="10">
+      <c r="C498" s="1">
         <v>5</v>
       </c>
       <c r="D498" t="s">
@@ -17099,7 +17306,7 @@
       <c r="B499" s="1">
         <v>218</v>
       </c>
-      <c r="C499" s="10">
+      <c r="C499" s="1">
         <v>6</v>
       </c>
       <c r="D499" t="s">
@@ -17113,7 +17320,7 @@
       <c r="B500" s="1">
         <v>218</v>
       </c>
-      <c r="C500" s="10">
+      <c r="C500" s="1">
         <v>7</v>
       </c>
       <c r="D500" t="s">
@@ -17127,7 +17334,7 @@
       <c r="B501" s="1">
         <v>218</v>
       </c>
-      <c r="C501" s="10">
+      <c r="C501" s="1">
         <v>8</v>
       </c>
       <c r="D501" t="s">
@@ -17141,7 +17348,7 @@
       <c r="B502" s="1">
         <v>218</v>
       </c>
-      <c r="C502" s="10">
+      <c r="C502" s="1">
         <v>10</v>
       </c>
       <c r="D502" t="s">
@@ -17155,7 +17362,7 @@
       <c r="B503" s="1">
         <v>218</v>
       </c>
-      <c r="C503" s="10">
+      <c r="C503" s="1">
         <v>11</v>
       </c>
       <c r="D503" t="s">
@@ -17169,7 +17376,7 @@
       <c r="B504" s="1">
         <v>218</v>
       </c>
-      <c r="C504" s="10">
+      <c r="C504" s="1">
         <v>9</v>
       </c>
       <c r="D504" t="s">
@@ -17183,7 +17390,7 @@
       <c r="B505" s="1">
         <v>218</v>
       </c>
-      <c r="C505" s="10">
+      <c r="C505" s="1">
         <v>12</v>
       </c>
       <c r="D505" t="s">
@@ -17197,7 +17404,7 @@
       <c r="B506" s="1">
         <v>218</v>
       </c>
-      <c r="C506" s="10">
+      <c r="C506" s="1">
         <v>13</v>
       </c>
       <c r="D506" t="s">
@@ -17211,7 +17418,7 @@
       <c r="B507" s="1">
         <v>218</v>
       </c>
-      <c r="C507" s="10">
+      <c r="C507" s="1">
         <v>14</v>
       </c>
       <c r="D507" t="s">
@@ -17225,7 +17432,7 @@
       <c r="B508" s="1">
         <v>218</v>
       </c>
-      <c r="C508" s="10">
+      <c r="C508" s="1">
         <v>15</v>
       </c>
       <c r="D508" t="s">
@@ -17239,7 +17446,7 @@
       <c r="B509" s="1">
         <v>218</v>
       </c>
-      <c r="C509" s="10">
+      <c r="C509" s="1">
         <v>16</v>
       </c>
       <c r="D509" t="s">
@@ -17253,7 +17460,7 @@
       <c r="B510" s="1">
         <v>218</v>
       </c>
-      <c r="C510" s="10">
+      <c r="C510" s="1">
         <v>17</v>
       </c>
       <c r="D510" t="s">
@@ -17267,7 +17474,7 @@
       <c r="B511" s="1">
         <v>218</v>
       </c>
-      <c r="C511" s="10">
+      <c r="C511" s="1">
         <v>20</v>
       </c>
       <c r="D511" t="s">
@@ -17281,7 +17488,7 @@
       <c r="B512" s="1">
         <v>218</v>
       </c>
-      <c r="C512" s="10">
+      <c r="C512" s="1">
         <v>19</v>
       </c>
       <c r="D512" t="s">
@@ -17295,7 +17502,7 @@
       <c r="B513" s="1">
         <v>218</v>
       </c>
-      <c r="C513" s="10">
+      <c r="C513" s="1">
         <v>18</v>
       </c>
       <c r="D513" t="s">
@@ -17310,7 +17517,7 @@
         <v>218</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D514" t="s">
         <v>190</v>
@@ -17646,7 +17853,7 @@
         <v>219</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D538" t="s">
         <v>190</v>
@@ -17940,7 +18147,7 @@
         <v>220</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D559" t="s">
         <v>190</v>
@@ -17953,7 +18160,7 @@
       <c r="B560" s="1">
         <v>221</v>
       </c>
-      <c r="C560" s="10">
+      <c r="C560" s="1">
         <v>1</v>
       </c>
       <c r="D560" t="s">
@@ -17967,7 +18174,7 @@
       <c r="B561" s="1">
         <v>221</v>
       </c>
-      <c r="C561" s="10">
+      <c r="C561" s="1">
         <v>4</v>
       </c>
       <c r="D561" t="s">
@@ -17981,7 +18188,7 @@
       <c r="B562" s="1">
         <v>221</v>
       </c>
-      <c r="C562" s="10">
+      <c r="C562" s="1">
         <v>2</v>
       </c>
       <c r="D562" t="s">
@@ -17995,7 +18202,7 @@
       <c r="B563" s="1">
         <v>221</v>
       </c>
-      <c r="C563" s="10">
+      <c r="C563" s="1">
         <v>3</v>
       </c>
       <c r="D563" t="s">
@@ -18009,7 +18216,7 @@
       <c r="B564" s="1">
         <v>221</v>
       </c>
-      <c r="C564" s="10">
+      <c r="C564" s="1">
         <v>6</v>
       </c>
       <c r="D564" t="s">
@@ -18023,7 +18230,7 @@
       <c r="B565" s="1">
         <v>221</v>
       </c>
-      <c r="C565" s="10">
+      <c r="C565" s="1">
         <v>5</v>
       </c>
       <c r="D565" t="s">
@@ -18037,7 +18244,7 @@
       <c r="B566" s="1">
         <v>221</v>
       </c>
-      <c r="C566" s="10">
+      <c r="C566" s="1">
         <v>7</v>
       </c>
       <c r="D566" t="s">
@@ -18051,7 +18258,7 @@
       <c r="B567" s="1">
         <v>221</v>
       </c>
-      <c r="C567" s="10">
+      <c r="C567" s="1">
         <v>8</v>
       </c>
       <c r="D567" t="s">
@@ -18065,7 +18272,7 @@
       <c r="B568" s="1">
         <v>221</v>
       </c>
-      <c r="C568" s="10">
+      <c r="C568" s="1">
         <v>10</v>
       </c>
       <c r="D568" t="s">
@@ -18079,7 +18286,7 @@
       <c r="B569" s="1">
         <v>221</v>
       </c>
-      <c r="C569" s="10">
+      <c r="C569" s="1">
         <v>11</v>
       </c>
       <c r="D569" t="s">
@@ -18093,7 +18300,7 @@
       <c r="B570" s="1">
         <v>221</v>
       </c>
-      <c r="C570" s="10">
+      <c r="C570" s="1">
         <v>9</v>
       </c>
       <c r="D570" t="s">
@@ -18107,7 +18314,7 @@
       <c r="B571" s="1">
         <v>221</v>
       </c>
-      <c r="C571" s="10">
+      <c r="C571" s="1">
         <v>12</v>
       </c>
       <c r="D571" t="s">
@@ -18121,7 +18328,7 @@
       <c r="B572" s="1">
         <v>221</v>
       </c>
-      <c r="C572" s="10">
+      <c r="C572" s="1">
         <v>13</v>
       </c>
       <c r="D572" t="s">
@@ -18135,7 +18342,7 @@
       <c r="B573" s="1">
         <v>221</v>
       </c>
-      <c r="C573" s="10">
+      <c r="C573" s="1">
         <v>14</v>
       </c>
       <c r="D573" t="s">
@@ -18149,7 +18356,7 @@
       <c r="B574" s="1">
         <v>221</v>
       </c>
-      <c r="C574" s="10">
+      <c r="C574" s="1">
         <v>15</v>
       </c>
       <c r="D574" t="s">
@@ -18163,7 +18370,7 @@
       <c r="B575" s="1">
         <v>221</v>
       </c>
-      <c r="C575" s="10">
+      <c r="C575" s="1">
         <v>16</v>
       </c>
       <c r="D575" t="s">
@@ -18177,7 +18384,7 @@
       <c r="B576" s="1">
         <v>221</v>
       </c>
-      <c r="C576" s="10">
+      <c r="C576" s="1">
         <v>17</v>
       </c>
       <c r="D576" t="s">
@@ -18191,7 +18398,7 @@
       <c r="B577" s="1">
         <v>221</v>
       </c>
-      <c r="C577" s="10">
+      <c r="C577" s="1">
         <v>19</v>
       </c>
       <c r="D577" t="s">
@@ -18205,7 +18412,7 @@
       <c r="B578" s="1">
         <v>221</v>
       </c>
-      <c r="C578" s="10">
+      <c r="C578" s="1">
         <v>23</v>
       </c>
       <c r="D578" t="s">
@@ -18219,7 +18426,7 @@
       <c r="B579" s="1">
         <v>221</v>
       </c>
-      <c r="C579" s="10">
+      <c r="C579" s="1">
         <v>21</v>
       </c>
       <c r="D579" t="s">
@@ -18233,7 +18440,7 @@
       <c r="B580" s="1">
         <v>221</v>
       </c>
-      <c r="C580" s="10">
+      <c r="C580" s="1">
         <v>18</v>
       </c>
       <c r="D580" t="s">
@@ -18247,7 +18454,7 @@
       <c r="B581" s="1">
         <v>221</v>
       </c>
-      <c r="C581" s="10">
+      <c r="C581" s="1">
         <v>20</v>
       </c>
       <c r="D581" t="s">
@@ -18261,7 +18468,7 @@
       <c r="B582" s="1">
         <v>221</v>
       </c>
-      <c r="C582" s="10">
+      <c r="C582" s="1">
         <v>22</v>
       </c>
       <c r="D582" t="s">
@@ -18276,7 +18483,7 @@
         <v>221</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D583" t="s">
         <v>190</v>
@@ -18289,7 +18496,7 @@
       <c r="B584" s="1">
         <v>222</v>
       </c>
-      <c r="C584" s="10">
+      <c r="C584" s="1">
         <v>1</v>
       </c>
       <c r="D584" t="s">
@@ -18303,7 +18510,7 @@
       <c r="B585" s="1">
         <v>222</v>
       </c>
-      <c r="C585" s="10">
+      <c r="C585" s="1">
         <v>2</v>
       </c>
       <c r="D585" t="s">
@@ -18317,7 +18524,7 @@
       <c r="B586" s="1">
         <v>222</v>
       </c>
-      <c r="C586" s="10">
+      <c r="C586" s="1">
         <v>3</v>
       </c>
       <c r="D586" t="s">
@@ -18331,7 +18538,7 @@
       <c r="B587" s="1">
         <v>222</v>
       </c>
-      <c r="C587" s="10">
+      <c r="C587" s="1">
         <v>4</v>
       </c>
       <c r="D587" t="s">
@@ -18345,7 +18552,7 @@
       <c r="B588" s="1">
         <v>222</v>
       </c>
-      <c r="C588" s="10">
+      <c r="C588" s="1">
         <v>6</v>
       </c>
       <c r="D588" t="s">
@@ -18359,7 +18566,7 @@
       <c r="B589" s="1">
         <v>222</v>
       </c>
-      <c r="C589" s="10">
+      <c r="C589" s="1">
         <v>5</v>
       </c>
       <c r="D589" t="s">
@@ -18373,7 +18580,7 @@
       <c r="B590" s="1">
         <v>222</v>
       </c>
-      <c r="C590" s="10">
+      <c r="C590" s="1">
         <v>7</v>
       </c>
       <c r="D590" t="s">
@@ -18387,7 +18594,7 @@
       <c r="B591" s="1">
         <v>222</v>
       </c>
-      <c r="C591" s="10">
+      <c r="C591" s="1">
         <v>8</v>
       </c>
       <c r="D591" t="s">
@@ -18401,7 +18608,7 @@
       <c r="B592" s="1">
         <v>222</v>
       </c>
-      <c r="C592" s="10">
+      <c r="C592" s="1">
         <v>10</v>
       </c>
       <c r="D592" t="s">
@@ -18415,7 +18622,7 @@
       <c r="B593" s="1">
         <v>222</v>
       </c>
-      <c r="C593" s="10">
+      <c r="C593" s="1">
         <v>9</v>
       </c>
       <c r="D593" t="s">
@@ -18429,7 +18636,7 @@
       <c r="B594" s="1">
         <v>222</v>
       </c>
-      <c r="C594" s="10">
+      <c r="C594" s="1">
         <v>11</v>
       </c>
       <c r="D594" t="s">
@@ -18443,7 +18650,7 @@
       <c r="B595" s="1">
         <v>222</v>
       </c>
-      <c r="C595" s="10">
+      <c r="C595" s="1">
         <v>12</v>
       </c>
       <c r="D595" t="s">
@@ -18457,7 +18664,7 @@
       <c r="B596" s="1">
         <v>222</v>
       </c>
-      <c r="C596" s="10">
+      <c r="C596" s="1">
         <v>14</v>
       </c>
       <c r="D596" t="s">
@@ -18471,7 +18678,7 @@
       <c r="B597" s="1">
         <v>222</v>
       </c>
-      <c r="C597" s="10">
+      <c r="C597" s="1">
         <v>13</v>
       </c>
       <c r="D597" t="s">
@@ -18485,7 +18692,7 @@
       <c r="B598" s="1">
         <v>222</v>
       </c>
-      <c r="C598" s="10">
+      <c r="C598" s="1">
         <v>15</v>
       </c>
       <c r="D598" t="s">
@@ -18499,7 +18706,7 @@
       <c r="B599" s="1">
         <v>222</v>
       </c>
-      <c r="C599" s="10">
+      <c r="C599" s="1">
         <v>16</v>
       </c>
       <c r="D599" t="s">
@@ -18513,7 +18720,7 @@
       <c r="B600" s="1">
         <v>222</v>
       </c>
-      <c r="C600" s="10">
+      <c r="C600" s="1">
         <v>17</v>
       </c>
       <c r="D600" t="s">
@@ -18527,7 +18734,7 @@
       <c r="B601" s="1">
         <v>222</v>
       </c>
-      <c r="C601" s="10">
+      <c r="C601" s="1">
         <v>18</v>
       </c>
       <c r="D601" t="s">
@@ -18541,7 +18748,7 @@
       <c r="B602" s="1">
         <v>222</v>
       </c>
-      <c r="C602" s="10">
+      <c r="C602" s="1">
         <v>19</v>
       </c>
       <c r="D602" t="s">
@@ -18555,7 +18762,7 @@
       <c r="B603" s="1">
         <v>222</v>
       </c>
-      <c r="C603" s="10">
+      <c r="C603" s="1">
         <v>20</v>
       </c>
       <c r="D603" t="s">
@@ -18570,7 +18777,7 @@
         <v>222</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D604" t="s">
         <v>190</v>
@@ -18583,7 +18790,7 @@
       <c r="B605" s="1">
         <v>223</v>
       </c>
-      <c r="C605" s="10">
+      <c r="C605" s="1">
         <v>1</v>
       </c>
       <c r="D605" t="s">
@@ -18597,7 +18804,7 @@
       <c r="B606" s="1">
         <v>223</v>
       </c>
-      <c r="C606" s="10">
+      <c r="C606" s="1">
         <v>2</v>
       </c>
       <c r="D606" t="s">
@@ -18611,7 +18818,7 @@
       <c r="B607" s="1">
         <v>223</v>
       </c>
-      <c r="C607" s="10">
+      <c r="C607" s="1">
         <v>4</v>
       </c>
       <c r="D607" t="s">
@@ -18625,7 +18832,7 @@
       <c r="B608" s="1">
         <v>223</v>
       </c>
-      <c r="C608" s="10">
+      <c r="C608" s="1">
         <v>3</v>
       </c>
       <c r="D608" t="s">
@@ -18639,7 +18846,7 @@
       <c r="B609" s="1">
         <v>223</v>
       </c>
-      <c r="C609" s="10">
+      <c r="C609" s="1">
         <v>6</v>
       </c>
       <c r="D609" t="s">
@@ -18653,7 +18860,7 @@
       <c r="B610" s="1">
         <v>223</v>
       </c>
-      <c r="C610" s="10">
+      <c r="C610" s="1">
         <v>5</v>
       </c>
       <c r="D610" t="s">
@@ -18667,7 +18874,7 @@
       <c r="B611" s="1">
         <v>223</v>
       </c>
-      <c r="C611" s="10">
+      <c r="C611" s="1">
         <v>7</v>
       </c>
       <c r="D611" t="s">
@@ -18681,7 +18888,7 @@
       <c r="B612" s="1">
         <v>223</v>
       </c>
-      <c r="C612" s="10">
+      <c r="C612" s="1">
         <v>8</v>
       </c>
       <c r="D612" t="s">
@@ -18695,7 +18902,7 @@
       <c r="B613" s="1">
         <v>223</v>
       </c>
-      <c r="C613" s="10">
+      <c r="C613" s="1">
         <v>10</v>
       </c>
       <c r="D613" t="s">
@@ -18709,7 +18916,7 @@
       <c r="B614" s="1">
         <v>223</v>
       </c>
-      <c r="C614" s="10">
+      <c r="C614" s="1">
         <v>9</v>
       </c>
       <c r="D614" t="s">
@@ -18723,7 +18930,7 @@
       <c r="B615" s="1">
         <v>223</v>
       </c>
-      <c r="C615" s="10">
+      <c r="C615" s="1">
         <v>11</v>
       </c>
       <c r="D615" t="s">
@@ -18737,7 +18944,7 @@
       <c r="B616" s="1">
         <v>223</v>
       </c>
-      <c r="C616" s="10">
+      <c r="C616" s="1">
         <v>12</v>
       </c>
       <c r="D616" t="s">
@@ -18751,7 +18958,7 @@
       <c r="B617" s="1">
         <v>223</v>
       </c>
-      <c r="C617" s="10">
+      <c r="C617" s="1">
         <v>13</v>
       </c>
       <c r="D617" t="s">
@@ -18765,7 +18972,7 @@
       <c r="B618" s="1">
         <v>223</v>
       </c>
-      <c r="C618" s="10">
+      <c r="C618" s="1">
         <v>14</v>
       </c>
       <c r="D618" t="s">
@@ -18779,7 +18986,7 @@
       <c r="B619" s="1">
         <v>223</v>
       </c>
-      <c r="C619" s="10">
+      <c r="C619" s="1">
         <v>15</v>
       </c>
       <c r="D619" t="s">
@@ -18793,7 +19000,7 @@
       <c r="B620" s="1">
         <v>223</v>
       </c>
-      <c r="C620" s="10">
+      <c r="C620" s="1">
         <v>16</v>
       </c>
       <c r="D620" t="s">
@@ -18807,7 +19014,7 @@
       <c r="B621" s="1">
         <v>223</v>
       </c>
-      <c r="C621" s="10">
+      <c r="C621" s="1">
         <v>17</v>
       </c>
       <c r="D621" t="s">
@@ -18821,7 +19028,7 @@
       <c r="B622" s="1">
         <v>223</v>
       </c>
-      <c r="C622" s="10">
+      <c r="C622" s="1">
         <v>18</v>
       </c>
       <c r="D622" t="s">
@@ -18835,7 +19042,7 @@
       <c r="B623" s="1">
         <v>223</v>
       </c>
-      <c r="C623" s="10">
+      <c r="C623" s="1">
         <v>20</v>
       </c>
       <c r="D623" t="s">
@@ -18849,7 +19056,7 @@
       <c r="B624" s="1">
         <v>223</v>
       </c>
-      <c r="C624" s="10">
+      <c r="C624" s="1">
         <v>19</v>
       </c>
       <c r="D624" t="s">
@@ -18864,7 +19071,7 @@
         <v>223</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D625" t="s">
         <v>190</v>
@@ -19158,7 +19365,7 @@
         <v>224</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D646" t="s">
         <v>190</v>
@@ -19494,7 +19701,7 @@
         <v>225</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D670" t="s">
         <v>190</v>
@@ -19507,7 +19714,7 @@
       <c r="B671" s="1">
         <v>226</v>
       </c>
-      <c r="C671" s="10">
+      <c r="C671" s="1">
         <v>1</v>
       </c>
       <c r="D671" t="s">
@@ -19521,7 +19728,7 @@
       <c r="B672" s="1">
         <v>226</v>
       </c>
-      <c r="C672" s="10">
+      <c r="C672" s="1">
         <v>2</v>
       </c>
       <c r="D672" t="s">
@@ -19535,7 +19742,7 @@
       <c r="B673" s="1">
         <v>226</v>
       </c>
-      <c r="C673" s="10">
+      <c r="C673" s="1">
         <v>3</v>
       </c>
       <c r="D673" t="s">
@@ -19549,7 +19756,7 @@
       <c r="B674" s="1">
         <v>226</v>
       </c>
-      <c r="C674" s="10">
+      <c r="C674" s="1">
         <v>4</v>
       </c>
       <c r="D674" t="s">
@@ -19563,7 +19770,7 @@
       <c r="B675" s="1">
         <v>226</v>
       </c>
-      <c r="C675" s="10">
+      <c r="C675" s="1">
         <v>5</v>
       </c>
       <c r="D675" t="s">
@@ -19577,7 +19784,7 @@
       <c r="B676" s="1">
         <v>226</v>
       </c>
-      <c r="C676" s="10">
+      <c r="C676" s="1">
         <v>6</v>
       </c>
       <c r="D676" t="s">
@@ -19591,7 +19798,7 @@
       <c r="B677" s="1">
         <v>226</v>
       </c>
-      <c r="C677" s="10">
+      <c r="C677" s="1">
         <v>8</v>
       </c>
       <c r="D677" t="s">
@@ -19605,7 +19812,7 @@
       <c r="B678" s="1">
         <v>226</v>
       </c>
-      <c r="C678" s="10">
+      <c r="C678" s="1">
         <v>10</v>
       </c>
       <c r="D678" t="s">
@@ -19619,7 +19826,7 @@
       <c r="B679" s="1">
         <v>226</v>
       </c>
-      <c r="C679" s="10">
+      <c r="C679" s="1">
         <v>11</v>
       </c>
       <c r="D679" t="s">
@@ -19633,7 +19840,7 @@
       <c r="B680" s="1">
         <v>226</v>
       </c>
-      <c r="C680" s="10">
+      <c r="C680" s="1">
         <v>7</v>
       </c>
       <c r="D680" t="s">
@@ -19647,7 +19854,7 @@
       <c r="B681" s="1">
         <v>226</v>
       </c>
-      <c r="C681" s="10">
+      <c r="C681" s="1">
         <v>9</v>
       </c>
       <c r="D681" t="s">
@@ -19661,7 +19868,7 @@
       <c r="B682" s="1">
         <v>226</v>
       </c>
-      <c r="C682" s="10">
+      <c r="C682" s="1">
         <v>12</v>
       </c>
       <c r="D682" t="s">
@@ -19675,7 +19882,7 @@
       <c r="B683" s="1">
         <v>226</v>
       </c>
-      <c r="C683" s="10">
+      <c r="C683" s="1">
         <v>13</v>
       </c>
       <c r="D683" t="s">
@@ -19689,7 +19896,7 @@
       <c r="B684" s="1">
         <v>226</v>
       </c>
-      <c r="C684" s="10">
+      <c r="C684" s="1">
         <v>14</v>
       </c>
       <c r="D684" t="s">
@@ -19703,7 +19910,7 @@
       <c r="B685" s="1">
         <v>226</v>
       </c>
-      <c r="C685" s="10">
+      <c r="C685" s="1">
         <v>15</v>
       </c>
       <c r="D685" t="s">
@@ -19717,7 +19924,7 @@
       <c r="B686" s="1">
         <v>226</v>
       </c>
-      <c r="C686" s="10">
+      <c r="C686" s="1">
         <v>17</v>
       </c>
       <c r="D686" t="s">
@@ -19731,7 +19938,7 @@
       <c r="B687" s="1">
         <v>226</v>
       </c>
-      <c r="C687" s="10">
+      <c r="C687" s="1">
         <v>20</v>
       </c>
       <c r="D687" t="s">
@@ -19745,7 +19952,7 @@
       <c r="B688" s="1">
         <v>226</v>
       </c>
-      <c r="C688" s="10">
+      <c r="C688" s="1">
         <v>18</v>
       </c>
       <c r="D688" t="s">
@@ -19759,7 +19966,7 @@
       <c r="B689" s="1">
         <v>226</v>
       </c>
-      <c r="C689" s="10">
+      <c r="C689" s="1">
         <v>16</v>
       </c>
       <c r="D689" t="s">
@@ -19773,7 +19980,7 @@
       <c r="B690" s="1">
         <v>226</v>
       </c>
-      <c r="C690" s="10">
+      <c r="C690" s="1">
         <v>19</v>
       </c>
       <c r="D690" t="s">
@@ -19788,7 +19995,7 @@
         <v>226</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D691" t="s">
         <v>190</v>
@@ -20082,7 +20289,7 @@
         <v>227</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D712" t="s">
         <v>190</v>
@@ -20095,7 +20302,7 @@
       <c r="B713" s="1">
         <v>228</v>
       </c>
-      <c r="C713" s="10">
+      <c r="C713" s="1">
         <v>1</v>
       </c>
       <c r="D713" t="s">
@@ -20109,7 +20316,7 @@
       <c r="B714" s="1">
         <v>228</v>
       </c>
-      <c r="C714" s="10">
+      <c r="C714" s="1">
         <v>2</v>
       </c>
       <c r="D714" t="s">
@@ -20123,7 +20330,7 @@
       <c r="B715" s="1">
         <v>228</v>
       </c>
-      <c r="C715" s="10">
+      <c r="C715" s="1">
         <v>3</v>
       </c>
       <c r="D715" t="s">
@@ -20137,7 +20344,7 @@
       <c r="B716" s="1">
         <v>228</v>
       </c>
-      <c r="C716" s="10">
+      <c r="C716" s="1">
         <v>4</v>
       </c>
       <c r="D716" t="s">
@@ -20151,7 +20358,7 @@
       <c r="B717" s="1">
         <v>228</v>
       </c>
-      <c r="C717" s="10">
+      <c r="C717" s="1">
         <v>5</v>
       </c>
       <c r="D717" t="s">
@@ -20165,7 +20372,7 @@
       <c r="B718" s="1">
         <v>228</v>
       </c>
-      <c r="C718" s="10">
+      <c r="C718" s="1">
         <v>6</v>
       </c>
       <c r="D718" t="s">
@@ -20179,7 +20386,7 @@
       <c r="B719" s="1">
         <v>228</v>
       </c>
-      <c r="C719" s="10">
+      <c r="C719" s="1">
         <v>7</v>
       </c>
       <c r="D719" t="s">
@@ -20193,7 +20400,7 @@
       <c r="B720" s="1">
         <v>228</v>
       </c>
-      <c r="C720" s="10">
+      <c r="C720" s="1">
         <v>8</v>
       </c>
       <c r="D720" t="s">
@@ -20207,7 +20414,7 @@
       <c r="B721" s="1">
         <v>228</v>
       </c>
-      <c r="C721" s="10">
+      <c r="C721" s="1">
         <v>10</v>
       </c>
       <c r="D721" t="s">
@@ -20221,7 +20428,7 @@
       <c r="B722" s="1">
         <v>228</v>
       </c>
-      <c r="C722" s="10">
+      <c r="C722" s="1">
         <v>11</v>
       </c>
       <c r="D722" t="s">
@@ -20235,7 +20442,7 @@
       <c r="B723" s="1">
         <v>228</v>
       </c>
-      <c r="C723" s="10">
+      <c r="C723" s="1">
         <v>9</v>
       </c>
       <c r="D723" t="s">
@@ -20249,7 +20456,7 @@
       <c r="B724" s="1">
         <v>228</v>
       </c>
-      <c r="C724" s="10">
+      <c r="C724" s="1">
         <v>12</v>
       </c>
       <c r="D724" t="s">
@@ -20263,7 +20470,7 @@
       <c r="B725" s="1">
         <v>228</v>
       </c>
-      <c r="C725" s="10">
+      <c r="C725" s="1">
         <v>14</v>
       </c>
       <c r="D725" t="s">
@@ -20277,7 +20484,7 @@
       <c r="B726" s="1">
         <v>228</v>
       </c>
-      <c r="C726" s="10">
+      <c r="C726" s="1">
         <v>13</v>
       </c>
       <c r="D726" t="s">
@@ -20291,7 +20498,7 @@
       <c r="B727" s="1">
         <v>228</v>
       </c>
-      <c r="C727" s="10">
+      <c r="C727" s="1">
         <v>15</v>
       </c>
       <c r="D727" t="s">
@@ -20305,7 +20512,7 @@
       <c r="B728" s="1">
         <v>228</v>
       </c>
-      <c r="C728" s="10">
+      <c r="C728" s="1">
         <v>16</v>
       </c>
       <c r="D728" t="s">
@@ -20319,7 +20526,7 @@
       <c r="B729" s="1">
         <v>228</v>
       </c>
-      <c r="C729" s="10">
+      <c r="C729" s="1">
         <v>17</v>
       </c>
       <c r="D729" t="s">
@@ -20333,7 +20540,7 @@
       <c r="B730" s="1">
         <v>228</v>
       </c>
-      <c r="C730" s="10">
+      <c r="C730" s="1">
         <v>19</v>
       </c>
       <c r="D730" t="s">
@@ -20347,7 +20554,7 @@
       <c r="B731" s="1">
         <v>228</v>
       </c>
-      <c r="C731" s="10">
+      <c r="C731" s="1">
         <v>18</v>
       </c>
       <c r="D731" t="s">
@@ -20361,7 +20568,7 @@
       <c r="B732" s="1">
         <v>228</v>
       </c>
-      <c r="C732" s="10">
+      <c r="C732" s="1">
         <v>20</v>
       </c>
       <c r="D732" t="s">
@@ -20376,7 +20583,7 @@
         <v>228</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D733" t="s">
         <v>190</v>
@@ -20670,7 +20877,7 @@
         <v>229</v>
       </c>
       <c r="C754" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D754" t="s">
         <v>190</v>
@@ -21006,7 +21213,7 @@
         <v>230</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D778" t="s">
         <v>190</v>
@@ -21019,7 +21226,7 @@
       <c r="B779" s="1">
         <v>231</v>
       </c>
-      <c r="C779" s="10">
+      <c r="C779" s="1">
         <v>1</v>
       </c>
       <c r="D779" t="s">
@@ -21033,7 +21240,7 @@
       <c r="B780" s="1">
         <v>231</v>
       </c>
-      <c r="C780" s="10">
+      <c r="C780" s="1">
         <v>2</v>
       </c>
       <c r="D780" t="s">
@@ -21047,7 +21254,7 @@
       <c r="B781" s="1">
         <v>231</v>
       </c>
-      <c r="C781" s="10">
+      <c r="C781" s="1">
         <v>3</v>
       </c>
       <c r="D781" t="s">
@@ -21061,7 +21268,7 @@
       <c r="B782" s="1">
         <v>231</v>
       </c>
-      <c r="C782" s="10">
+      <c r="C782" s="1">
         <v>4</v>
       </c>
       <c r="D782" t="s">
@@ -21075,7 +21282,7 @@
       <c r="B783" s="1">
         <v>231</v>
       </c>
-      <c r="C783" s="10">
+      <c r="C783" s="1">
         <v>5</v>
       </c>
       <c r="D783" t="s">
@@ -21089,7 +21296,7 @@
       <c r="B784" s="1">
         <v>231</v>
       </c>
-      <c r="C784" s="10">
+      <c r="C784" s="1">
         <v>6</v>
       </c>
       <c r="D784" t="s">
@@ -21103,7 +21310,7 @@
       <c r="B785" s="1">
         <v>231</v>
       </c>
-      <c r="C785" s="10">
+      <c r="C785" s="1">
         <v>7</v>
       </c>
       <c r="D785" t="s">
@@ -21117,7 +21324,7 @@
       <c r="B786" s="1">
         <v>231</v>
       </c>
-      <c r="C786" s="10">
+      <c r="C786" s="1">
         <v>8</v>
       </c>
       <c r="D786" t="s">
@@ -21131,7 +21338,7 @@
       <c r="B787" s="1">
         <v>231</v>
       </c>
-      <c r="C787" s="10">
+      <c r="C787" s="1">
         <v>10</v>
       </c>
       <c r="D787" t="s">
@@ -21145,7 +21352,7 @@
       <c r="B788" s="1">
         <v>231</v>
       </c>
-      <c r="C788" s="10">
+      <c r="C788" s="1">
         <v>11</v>
       </c>
       <c r="D788" t="s">
@@ -21159,7 +21366,7 @@
       <c r="B789" s="1">
         <v>231</v>
       </c>
-      <c r="C789" s="10">
+      <c r="C789" s="1">
         <v>9</v>
       </c>
       <c r="D789" t="s">
@@ -21173,7 +21380,7 @@
       <c r="B790" s="1">
         <v>231</v>
       </c>
-      <c r="C790" s="10">
+      <c r="C790" s="1">
         <v>12</v>
       </c>
       <c r="D790" t="s">
@@ -21187,7 +21394,7 @@
       <c r="B791" s="1">
         <v>231</v>
       </c>
-      <c r="C791" s="10">
+      <c r="C791" s="1">
         <v>14</v>
       </c>
       <c r="D791" t="s">
@@ -21201,7 +21408,7 @@
       <c r="B792" s="1">
         <v>231</v>
       </c>
-      <c r="C792" s="10">
+      <c r="C792" s="1">
         <v>13</v>
       </c>
       <c r="D792" t="s">
@@ -21215,7 +21422,7 @@
       <c r="B793" s="1">
         <v>231</v>
       </c>
-      <c r="C793" s="10">
+      <c r="C793" s="1">
         <v>15</v>
       </c>
       <c r="D793" t="s">
@@ -21229,7 +21436,7 @@
       <c r="B794" s="1">
         <v>231</v>
       </c>
-      <c r="C794" s="10">
+      <c r="C794" s="1">
         <v>23</v>
       </c>
       <c r="D794" t="s">
@@ -21243,7 +21450,7 @@
       <c r="B795" s="1">
         <v>231</v>
       </c>
-      <c r="C795" s="10">
+      <c r="C795" s="1">
         <v>16</v>
       </c>
       <c r="D795" t="s">
@@ -21257,7 +21464,7 @@
       <c r="B796" s="1">
         <v>231</v>
       </c>
-      <c r="C796" s="10">
+      <c r="C796" s="1">
         <v>17</v>
       </c>
       <c r="D796" t="s">
@@ -21271,7 +21478,7 @@
       <c r="B797" s="1">
         <v>231</v>
       </c>
-      <c r="C797" s="10">
+      <c r="C797" s="1">
         <v>18</v>
       </c>
       <c r="D797" t="s">
@@ -21285,7 +21492,7 @@
       <c r="B798" s="1">
         <v>231</v>
       </c>
-      <c r="C798" s="10">
+      <c r="C798" s="1">
         <v>19</v>
       </c>
       <c r="D798" t="s">
@@ -21299,7 +21506,7 @@
       <c r="B799" s="1">
         <v>231</v>
       </c>
-      <c r="C799" s="10">
+      <c r="C799" s="1">
         <v>21</v>
       </c>
       <c r="D799" t="s">
@@ -21313,7 +21520,7 @@
       <c r="B800" s="1">
         <v>231</v>
       </c>
-      <c r="C800" s="10">
+      <c r="C800" s="1">
         <v>20</v>
       </c>
       <c r="D800" t="s">
@@ -21327,7 +21534,7 @@
       <c r="B801" s="1">
         <v>231</v>
       </c>
-      <c r="C801" s="10">
+      <c r="C801" s="1">
         <v>22</v>
       </c>
       <c r="D801" t="s">
@@ -21342,7 +21549,7 @@
         <v>231</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D802" t="s">
         <v>190</v>
@@ -21355,7 +21562,7 @@
       <c r="B803" s="1">
         <v>232</v>
       </c>
-      <c r="C803" s="10">
+      <c r="C803" s="1">
         <v>1</v>
       </c>
       <c r="D803" t="s">
@@ -21369,7 +21576,7 @@
       <c r="B804" s="1">
         <v>232</v>
       </c>
-      <c r="C804" s="10">
+      <c r="C804" s="1">
         <v>2</v>
       </c>
       <c r="D804" t="s">
@@ -21383,7 +21590,7 @@
       <c r="B805" s="1">
         <v>232</v>
       </c>
-      <c r="C805" s="10">
+      <c r="C805" s="1">
         <v>3</v>
       </c>
       <c r="D805" t="s">
@@ -21397,7 +21604,7 @@
       <c r="B806" s="1">
         <v>232</v>
       </c>
-      <c r="C806" s="10">
+      <c r="C806" s="1">
         <v>4</v>
       </c>
       <c r="D806" t="s">
@@ -21411,7 +21618,7 @@
       <c r="B807" s="1">
         <v>232</v>
       </c>
-      <c r="C807" s="10">
+      <c r="C807" s="1">
         <v>5</v>
       </c>
       <c r="D807" t="s">
@@ -21425,7 +21632,7 @@
       <c r="B808" s="1">
         <v>232</v>
       </c>
-      <c r="C808" s="10">
+      <c r="C808" s="1">
         <v>6</v>
       </c>
       <c r="D808" t="s">
@@ -21439,7 +21646,7 @@
       <c r="B809" s="1">
         <v>232</v>
       </c>
-      <c r="C809" s="10">
+      <c r="C809" s="1">
         <v>7</v>
       </c>
       <c r="D809" t="s">
@@ -21453,7 +21660,7 @@
       <c r="B810" s="1">
         <v>232</v>
       </c>
-      <c r="C810" s="10">
+      <c r="C810" s="1">
         <v>8</v>
       </c>
       <c r="D810" t="s">
@@ -21467,7 +21674,7 @@
       <c r="B811" s="1">
         <v>232</v>
       </c>
-      <c r="C811" s="10">
+      <c r="C811" s="1">
         <v>10</v>
       </c>
       <c r="D811" t="s">
@@ -21481,7 +21688,7 @@
       <c r="B812" s="1">
         <v>232</v>
       </c>
-      <c r="C812" s="10">
+      <c r="C812" s="1">
         <v>11</v>
       </c>
       <c r="D812" t="s">
@@ -21495,7 +21702,7 @@
       <c r="B813" s="1">
         <v>232</v>
       </c>
-      <c r="C813" s="10">
+      <c r="C813" s="1">
         <v>9</v>
       </c>
       <c r="D813" t="s">
@@ -21509,7 +21716,7 @@
       <c r="B814" s="1">
         <v>232</v>
       </c>
-      <c r="C814" s="10">
+      <c r="C814" s="1">
         <v>12</v>
       </c>
       <c r="D814" t="s">
@@ -21523,7 +21730,7 @@
       <c r="B815" s="1">
         <v>232</v>
       </c>
-      <c r="C815" s="10">
+      <c r="C815" s="1">
         <v>14</v>
       </c>
       <c r="D815" t="s">
@@ -21537,7 +21744,7 @@
       <c r="B816" s="1">
         <v>232</v>
       </c>
-      <c r="C816" s="10">
+      <c r="C816" s="1">
         <v>13</v>
       </c>
       <c r="D816" t="s">
@@ -21551,7 +21758,7 @@
       <c r="B817" s="1">
         <v>232</v>
       </c>
-      <c r="C817" s="10">
+      <c r="C817" s="1">
         <v>15</v>
       </c>
       <c r="D817" t="s">
@@ -21565,7 +21772,7 @@
       <c r="B818" s="1">
         <v>232</v>
       </c>
-      <c r="C818" s="10">
+      <c r="C818" s="1">
         <v>16</v>
       </c>
       <c r="D818" t="s">
@@ -21579,7 +21786,7 @@
       <c r="B819" s="1">
         <v>232</v>
       </c>
-      <c r="C819" s="10">
+      <c r="C819" s="1">
         <v>17</v>
       </c>
       <c r="D819" t="s">
@@ -21593,7 +21800,7 @@
       <c r="B820" s="1">
         <v>232</v>
       </c>
-      <c r="C820" s="10">
+      <c r="C820" s="1">
         <v>20</v>
       </c>
       <c r="D820" t="s">
@@ -21607,7 +21814,7 @@
       <c r="B821" s="1">
         <v>232</v>
       </c>
-      <c r="C821" s="10">
+      <c r="C821" s="1">
         <v>19</v>
       </c>
       <c r="D821" t="s">
@@ -21621,7 +21828,7 @@
       <c r="B822" s="1">
         <v>232</v>
       </c>
-      <c r="C822" s="10">
+      <c r="C822" s="1">
         <v>18</v>
       </c>
       <c r="D822" t="s">
@@ -21636,7 +21843,7 @@
         <v>232</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D823" t="s">
         <v>190</v>
@@ -21930,7 +22137,7 @@
         <v>233</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D844" t="s">
         <v>190</v>
@@ -21943,7 +22150,7 @@
       <c r="B845" s="1">
         <v>234</v>
       </c>
-      <c r="C845" s="10">
+      <c r="C845" s="1">
         <v>1</v>
       </c>
       <c r="D845" t="s">
@@ -21957,7 +22164,7 @@
       <c r="B846" s="1">
         <v>234</v>
       </c>
-      <c r="C846" s="10">
+      <c r="C846" s="1">
         <v>2</v>
       </c>
       <c r="D846" t="s">
@@ -21971,7 +22178,7 @@
       <c r="B847" s="1">
         <v>234</v>
       </c>
-      <c r="C847" s="10">
+      <c r="C847" s="1">
         <v>3</v>
       </c>
       <c r="D847" t="s">
@@ -21985,7 +22192,7 @@
       <c r="B848" s="1">
         <v>234</v>
       </c>
-      <c r="C848" s="10">
+      <c r="C848" s="1">
         <v>4</v>
       </c>
       <c r="D848" t="s">
@@ -21999,7 +22206,7 @@
       <c r="B849" s="1">
         <v>234</v>
       </c>
-      <c r="C849" s="10">
+      <c r="C849" s="1">
         <v>5</v>
       </c>
       <c r="D849" t="s">
@@ -22013,7 +22220,7 @@
       <c r="B850" s="1">
         <v>234</v>
       </c>
-      <c r="C850" s="10">
+      <c r="C850" s="1">
         <v>6</v>
       </c>
       <c r="D850" t="s">
@@ -22027,7 +22234,7 @@
       <c r="B851" s="1">
         <v>234</v>
       </c>
-      <c r="C851" s="10">
+      <c r="C851" s="1">
         <v>7</v>
       </c>
       <c r="D851" t="s">
@@ -22041,7 +22248,7 @@
       <c r="B852" s="1">
         <v>234</v>
       </c>
-      <c r="C852" s="10">
+      <c r="C852" s="1">
         <v>8</v>
       </c>
       <c r="D852" t="s">
@@ -22055,7 +22262,7 @@
       <c r="B853" s="1">
         <v>234</v>
       </c>
-      <c r="C853" s="10">
+      <c r="C853" s="1">
         <v>10</v>
       </c>
       <c r="D853" t="s">
@@ -22069,7 +22276,7 @@
       <c r="B854" s="1">
         <v>234</v>
       </c>
-      <c r="C854" s="10">
+      <c r="C854" s="1">
         <v>11</v>
       </c>
       <c r="D854" t="s">
@@ -22083,7 +22290,7 @@
       <c r="B855" s="1">
         <v>234</v>
       </c>
-      <c r="C855" s="10">
+      <c r="C855" s="1">
         <v>9</v>
       </c>
       <c r="D855" t="s">
@@ -22097,7 +22304,7 @@
       <c r="B856" s="1">
         <v>234</v>
       </c>
-      <c r="C856" s="10">
+      <c r="C856" s="1">
         <v>12</v>
       </c>
       <c r="D856" t="s">
@@ -22111,7 +22318,7 @@
       <c r="B857" s="1">
         <v>234</v>
       </c>
-      <c r="C857" s="10">
+      <c r="C857" s="1">
         <v>13</v>
       </c>
       <c r="D857" t="s">
@@ -22125,7 +22332,7 @@
       <c r="B858" s="1">
         <v>234</v>
       </c>
-      <c r="C858" s="10">
+      <c r="C858" s="1">
         <v>14</v>
       </c>
       <c r="D858" t="s">
@@ -22139,7 +22346,7 @@
       <c r="B859" s="1">
         <v>234</v>
       </c>
-      <c r="C859" s="10">
+      <c r="C859" s="1">
         <v>15</v>
       </c>
       <c r="D859" t="s">
@@ -22153,7 +22360,7 @@
       <c r="B860" s="1">
         <v>234</v>
       </c>
-      <c r="C860" s="10">
+      <c r="C860" s="1">
         <v>16</v>
       </c>
       <c r="D860" t="s">
@@ -22167,7 +22374,7 @@
       <c r="B861" s="1">
         <v>234</v>
       </c>
-      <c r="C861" s="10">
+      <c r="C861" s="1">
         <v>18</v>
       </c>
       <c r="D861" t="s">
@@ -22181,7 +22388,7 @@
       <c r="B862" s="1">
         <v>234</v>
       </c>
-      <c r="C862" s="10">
+      <c r="C862" s="1">
         <v>19</v>
       </c>
       <c r="D862" t="s">
@@ -22195,7 +22402,7 @@
       <c r="B863" s="1">
         <v>234</v>
       </c>
-      <c r="C863" s="10">
+      <c r="C863" s="1">
         <v>17</v>
       </c>
       <c r="D863" t="s">
@@ -22209,7 +22416,7 @@
       <c r="B864" s="1">
         <v>234</v>
       </c>
-      <c r="C864" s="10">
+      <c r="C864" s="1">
         <v>20</v>
       </c>
       <c r="D864" t="s">
@@ -22224,7 +22431,7 @@
         <v>234</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D865" t="s">
         <v>190</v>
